--- a/controller/src/main/resources/jxls_templates/qingqiushu_guonei.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_guonei.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12756" yWindow="12" windowWidth="15900" windowHeight="12456" tabRatio="570"/>
+    <workbookView xWindow="12756" yWindow="12" windowWidth="15900" windowHeight="12456" tabRatio="570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -48,6 +48,30 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>DONG</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:area(lastCell="H37")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
@@ -448,15 +472,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${pd.deliveryfinshdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>${pd.currencyposition}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>${pd.claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${pd.deliveryfinshdate}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -468,7 +492,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00&quot;元&quot;"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,6 +626,13 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -849,7 +880,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -946,6 +977,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1348,8 +1382,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -1362,14 +1396,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="D1" s="36" t="s">
+      <c r="B1" s="36"/>
+      <c r="D1" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="32" t="s">
@@ -1379,8 +1413,8 @@
       <c r="C2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="33" t="s">
@@ -1390,8 +1424,8 @@
       <c r="C3" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="32" t="s">
@@ -1403,8 +1437,8 @@
       <c r="C4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="32" t="s">
@@ -1414,8 +1448,8 @@
       <c r="C5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="34" t="s">
@@ -1425,8 +1459,8 @@
       <c r="C6" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="34" t="s">
@@ -1436,8 +1470,8 @@
       <c r="C7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="32" t="s">
@@ -1449,8 +1483,8 @@
       <c r="C8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
     </row>
     <row r="9" spans="1:5" s="16" customFormat="1" ht="14.4">
       <c r="A9" s="33" t="s">
@@ -1460,8 +1494,8 @@
       <c r="C9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="32" t="s">
@@ -1471,8 +1505,8 @@
       <c r="C10" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="32" t="s">
@@ -1484,8 +1518,8 @@
       <c r="C11" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="32" t="s">
@@ -1497,8 +1531,8 @@
       <c r="C12" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="32" t="s">
@@ -1510,8 +1544,8 @@
       <c r="C13" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="32" t="s">
@@ -1523,8 +1557,8 @@
       <c r="C14" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="32" t="s">
@@ -1536,21 +1570,21 @@
       <c r="C15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>62</v>
+      <c r="B16" s="35" t="s">
+        <v>64</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="32" t="s">
@@ -1560,8 +1594,8 @@
       <c r="C17" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="32" t="s">
@@ -1571,34 +1605,34 @@
       <c r="C18" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="32" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
     </row>
     <row r="20" spans="1:5" s="16" customFormat="1" ht="14.4">
       <c r="A20" s="32" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
     </row>
     <row r="21" spans="1:5" s="16" customFormat="1" ht="14.4">
       <c r="A21" s="32" t="s">
@@ -1608,8 +1642,8 @@
       <c r="C21" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
     </row>
     <row r="22" spans="1:5" s="16" customFormat="1" ht="14.4">
       <c r="A22" s="32" t="s">
@@ -1619,8 +1653,8 @@
       <c r="C22" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
     </row>
     <row r="23" spans="1:5" s="16" customFormat="1" ht="14.4">
       <c r="A23" s="33" t="s">
@@ -1630,8 +1664,8 @@
       <c r="C23" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="33" t="s">
@@ -1641,8 +1675,8 @@
       <c r="C24" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="40"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="33" t="s">
@@ -1652,8 +1686,8 @@
       <c r="C25" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="33" t="s">
@@ -1665,8 +1699,8 @@
       <c r="C26" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="40"/>
     </row>
     <row r="27" spans="1:5" ht="13.8" thickBot="1">
       <c r="A27" s="33" t="s">
@@ -1678,8 +1712,8 @@
       <c r="C27" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="42"/>
     </row>
     <row r="28" spans="1:5" ht="13.8">
       <c r="A28" s="12"/>
@@ -1731,12 +1765,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1999,16 +2033,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" ht="28.5" customHeight="1">
       <c r="A2" s="2"/>
@@ -2025,13 +2059,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A3" s="47" t="str">
+      <c r="A3" s="48" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
@@ -2156,64 +2190,64 @@
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44" t="s">
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="44" t="s">
+      <c r="F12" s="46"/>
+      <c r="G12" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="45"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1">
-      <c r="A13" s="61" t="str">
+      <c r="A13" s="62" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="B13" s="55" t="str">
+      <c r="B13" s="56" t="str">
         <f>記入!B11</f>
         <v>${pd.pjnamechinese}</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="48" t="str">
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="49" t="str">
         <f>記入!B14</f>
         <v>${pd.openingdate}</v>
       </c>
-      <c r="F13" s="49"/>
+      <c r="F13" s="50"/>
       <c r="G13" s="23"/>
       <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1">
-      <c r="A14" s="62"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="52" t="s">
+      <c r="A14" s="63"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="53" t="str">
+      <c r="F14" s="52"/>
+      <c r="G14" s="54" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
-      <c r="H14" s="54"/>
+      <c r="H14" s="55"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1">
-      <c r="A15" s="62"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="50" t="str">
+      <c r="A15" s="63"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="51" t="str">
         <f>記入!B15</f>
         <v>${pd.enddate}</v>
       </c>
-      <c r="F15" s="51"/>
+      <c r="F15" s="52"/>
       <c r="G15" s="23"/>
       <c r="H15" s="24"/>
     </row>
@@ -2378,19 +2412,19 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="63">
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="64">
         <f>SUM(G13:H31)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="64"/>
+      <c r="H32" s="65"/>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1">
       <c r="A33" s="2"/>
@@ -2469,5 +2503,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/controller/src/main/resources/jxls_templates/qingqiushu_guonei.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_guonei.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_Code\newparkcloud\controller\src\main\resources\jxls_templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12756" yWindow="12" windowWidth="15900" windowHeight="12456" tabRatio="570" activeTab="1"/>
+    <workbookView xWindow="12750" yWindow="15" windowWidth="15900" windowHeight="12450" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
     <sheet name="国内請求書" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">記入!$A$1:$D$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">国内請求書!$A$1:$H$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">記入!$A$1:$D$28</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -29,7 +24,7 @@
     <author>DONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +49,7 @@
     <author>DONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
   <si>
     <t>請　求　書</t>
     <phoneticPr fontId="4"/>
@@ -481,6 +476,14 @@
   </si>
   <si>
     <t>${pd.deliveryfinshdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${pd.remarks}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -496,14 +499,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -511,7 +514,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -561,7 +564,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1073,11 +1076,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 3" xfId="2"/>
     <cellStyle name="標準 4" xfId="3"/>
     <cellStyle name="標準 5" xfId="4"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1093,7 +1096,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1135,7 +1138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1170,7 +1173,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1380,18 +1383,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="45.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="45.125" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="11"/>
-    <col min="4" max="4" width="3.6640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="3.625" style="11" customWidth="1"/>
     <col min="5" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
@@ -1486,7 +1489,7 @@
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
     </row>
-    <row r="9" spans="1:5" s="16" customFormat="1" ht="14.4">
+    <row r="9" spans="1:5" s="16" customFormat="1" ht="13.5">
       <c r="A9" s="33" t="s">
         <v>44</v>
       </c>
@@ -1621,7 +1624,7 @@
       <c r="D19" s="39"/>
       <c r="E19" s="40"/>
     </row>
-    <row r="20" spans="1:5" s="16" customFormat="1" ht="14.4">
+    <row r="20" spans="1:5" s="16" customFormat="1" ht="13.5">
       <c r="A20" s="32" t="s">
         <v>28</v>
       </c>
@@ -1634,7 +1637,7 @@
       <c r="D20" s="39"/>
       <c r="E20" s="40"/>
     </row>
-    <row r="21" spans="1:5" s="16" customFormat="1" ht="14.4">
+    <row r="21" spans="1:5" s="16" customFormat="1" ht="13.5">
       <c r="A21" s="32" t="s">
         <v>46</v>
       </c>
@@ -1645,7 +1648,7 @@
       <c r="D21" s="39"/>
       <c r="E21" s="40"/>
     </row>
-    <row r="22" spans="1:5" s="16" customFormat="1" ht="14.4">
+    <row r="22" spans="1:5" s="16" customFormat="1" ht="13.5">
       <c r="A22" s="32" t="s">
         <v>47</v>
       </c>
@@ -1656,7 +1659,7 @@
       <c r="D22" s="39"/>
       <c r="E22" s="40"/>
     </row>
-    <row r="23" spans="1:5" s="16" customFormat="1" ht="14.4">
+    <row r="23" spans="1:5" s="16" customFormat="1" ht="13.5">
       <c r="A23" s="33" t="s">
         <v>48</v>
       </c>
@@ -1691,70 +1694,83 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>37</v>
+        <v>65</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="D26" s="39"/>
       <c r="E26" s="40"/>
     </row>
-    <row r="27" spans="1:5" ht="13.8" thickBot="1">
+    <row r="27" spans="1:5">
       <c r="A27" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>50</v>
+        <v>35</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>51</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="42"/>
-    </row>
-    <row r="28" spans="1:5" ht="13.8">
-      <c r="A28" s="12"/>
-    </row>
-    <row r="29" spans="1:5" ht="13.8">
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
+    </row>
+    <row r="28" spans="1:5" ht="13.5" thickBot="1">
+      <c r="A28" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="41"/>
+      <c r="E28" s="42"/>
+    </row>
+    <row r="29" spans="1:5" ht="13.5">
       <c r="A29" s="12"/>
     </row>
-    <row r="30" spans="1:5" ht="13.8">
+    <row r="30" spans="1:5" ht="13.5">
       <c r="A30" s="12"/>
     </row>
-    <row r="31" spans="1:5" ht="13.8">
+    <row r="31" spans="1:5" ht="13.5">
       <c r="A31" s="12"/>
     </row>
-    <row r="32" spans="1:5" s="13" customFormat="1" ht="13.8">
+    <row r="32" spans="1:5" ht="13.5">
       <c r="A32" s="12"/>
-      <c r="C32" s="11"/>
-    </row>
-    <row r="33" spans="1:3" s="13" customFormat="1" ht="13.8">
+    </row>
+    <row r="33" spans="1:3" s="13" customFormat="1" ht="13.5">
       <c r="A33" s="12"/>
       <c r="C33" s="11"/>
     </row>
-    <row r="34" spans="1:3" s="13" customFormat="1" ht="13.8">
+    <row r="34" spans="1:3" s="13" customFormat="1" ht="13.5">
       <c r="A34" s="12"/>
       <c r="C34" s="11"/>
     </row>
-    <row r="35" spans="1:3" s="13" customFormat="1" ht="13.8">
+    <row r="35" spans="1:3" s="13" customFormat="1" ht="13.5">
       <c r="A35" s="12"/>
       <c r="C35" s="11"/>
     </row>
-    <row r="36" spans="1:3" s="13" customFormat="1" ht="13.8">
+    <row r="36" spans="1:3" s="13" customFormat="1" ht="13.5">
       <c r="A36" s="12"/>
       <c r="C36" s="11"/>
     </row>
-    <row r="37" spans="1:3" s="13" customFormat="1" ht="13.8">
+    <row r="37" spans="1:3" s="13" customFormat="1" ht="13.5">
       <c r="A37" s="12"/>
       <c r="C37" s="11"/>
+    </row>
+    <row r="38" spans="1:3" s="13" customFormat="1" ht="13.5">
+      <c r="A38" s="12"/>
+      <c r="C38" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E27"/>
+    <mergeCell ref="D1:E28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1769,266 +1785,266 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
     <col min="3" max="255" width="9" style="1"/>
-    <col min="256" max="256" width="7.88671875" style="1" customWidth="1"/>
-    <col min="257" max="257" width="14.77734375" style="1" customWidth="1"/>
-    <col min="258" max="258" width="13.88671875" style="1" customWidth="1"/>
+    <col min="256" max="256" width="7.875" style="1" customWidth="1"/>
+    <col min="257" max="257" width="14.75" style="1" customWidth="1"/>
+    <col min="258" max="258" width="13.875" style="1" customWidth="1"/>
     <col min="259" max="511" width="9" style="1"/>
-    <col min="512" max="512" width="7.88671875" style="1" customWidth="1"/>
-    <col min="513" max="513" width="14.77734375" style="1" customWidth="1"/>
-    <col min="514" max="514" width="13.88671875" style="1" customWidth="1"/>
+    <col min="512" max="512" width="7.875" style="1" customWidth="1"/>
+    <col min="513" max="513" width="14.75" style="1" customWidth="1"/>
+    <col min="514" max="514" width="13.875" style="1" customWidth="1"/>
     <col min="515" max="767" width="9" style="1"/>
-    <col min="768" max="768" width="7.88671875" style="1" customWidth="1"/>
-    <col min="769" max="769" width="14.77734375" style="1" customWidth="1"/>
-    <col min="770" max="770" width="13.88671875" style="1" customWidth="1"/>
+    <col min="768" max="768" width="7.875" style="1" customWidth="1"/>
+    <col min="769" max="769" width="14.75" style="1" customWidth="1"/>
+    <col min="770" max="770" width="13.875" style="1" customWidth="1"/>
     <col min="771" max="1023" width="9" style="1"/>
-    <col min="1024" max="1024" width="7.88671875" style="1" customWidth="1"/>
-    <col min="1025" max="1025" width="14.77734375" style="1" customWidth="1"/>
-    <col min="1026" max="1026" width="13.88671875" style="1" customWidth="1"/>
+    <col min="1024" max="1024" width="7.875" style="1" customWidth="1"/>
+    <col min="1025" max="1025" width="14.75" style="1" customWidth="1"/>
+    <col min="1026" max="1026" width="13.875" style="1" customWidth="1"/>
     <col min="1027" max="1279" width="9" style="1"/>
-    <col min="1280" max="1280" width="7.88671875" style="1" customWidth="1"/>
-    <col min="1281" max="1281" width="14.77734375" style="1" customWidth="1"/>
-    <col min="1282" max="1282" width="13.88671875" style="1" customWidth="1"/>
+    <col min="1280" max="1280" width="7.875" style="1" customWidth="1"/>
+    <col min="1281" max="1281" width="14.75" style="1" customWidth="1"/>
+    <col min="1282" max="1282" width="13.875" style="1" customWidth="1"/>
     <col min="1283" max="1535" width="9" style="1"/>
-    <col min="1536" max="1536" width="7.88671875" style="1" customWidth="1"/>
-    <col min="1537" max="1537" width="14.77734375" style="1" customWidth="1"/>
-    <col min="1538" max="1538" width="13.88671875" style="1" customWidth="1"/>
+    <col min="1536" max="1536" width="7.875" style="1" customWidth="1"/>
+    <col min="1537" max="1537" width="14.75" style="1" customWidth="1"/>
+    <col min="1538" max="1538" width="13.875" style="1" customWidth="1"/>
     <col min="1539" max="1791" width="9" style="1"/>
-    <col min="1792" max="1792" width="7.88671875" style="1" customWidth="1"/>
-    <col min="1793" max="1793" width="14.77734375" style="1" customWidth="1"/>
-    <col min="1794" max="1794" width="13.88671875" style="1" customWidth="1"/>
+    <col min="1792" max="1792" width="7.875" style="1" customWidth="1"/>
+    <col min="1793" max="1793" width="14.75" style="1" customWidth="1"/>
+    <col min="1794" max="1794" width="13.875" style="1" customWidth="1"/>
     <col min="1795" max="2047" width="9" style="1"/>
-    <col min="2048" max="2048" width="7.88671875" style="1" customWidth="1"/>
-    <col min="2049" max="2049" width="14.77734375" style="1" customWidth="1"/>
-    <col min="2050" max="2050" width="13.88671875" style="1" customWidth="1"/>
+    <col min="2048" max="2048" width="7.875" style="1" customWidth="1"/>
+    <col min="2049" max="2049" width="14.75" style="1" customWidth="1"/>
+    <col min="2050" max="2050" width="13.875" style="1" customWidth="1"/>
     <col min="2051" max="2303" width="9" style="1"/>
-    <col min="2304" max="2304" width="7.88671875" style="1" customWidth="1"/>
-    <col min="2305" max="2305" width="14.77734375" style="1" customWidth="1"/>
-    <col min="2306" max="2306" width="13.88671875" style="1" customWidth="1"/>
+    <col min="2304" max="2304" width="7.875" style="1" customWidth="1"/>
+    <col min="2305" max="2305" width="14.75" style="1" customWidth="1"/>
+    <col min="2306" max="2306" width="13.875" style="1" customWidth="1"/>
     <col min="2307" max="2559" width="9" style="1"/>
-    <col min="2560" max="2560" width="7.88671875" style="1" customWidth="1"/>
-    <col min="2561" max="2561" width="14.77734375" style="1" customWidth="1"/>
-    <col min="2562" max="2562" width="13.88671875" style="1" customWidth="1"/>
+    <col min="2560" max="2560" width="7.875" style="1" customWidth="1"/>
+    <col min="2561" max="2561" width="14.75" style="1" customWidth="1"/>
+    <col min="2562" max="2562" width="13.875" style="1" customWidth="1"/>
     <col min="2563" max="2815" width="9" style="1"/>
-    <col min="2816" max="2816" width="7.88671875" style="1" customWidth="1"/>
-    <col min="2817" max="2817" width="14.77734375" style="1" customWidth="1"/>
-    <col min="2818" max="2818" width="13.88671875" style="1" customWidth="1"/>
+    <col min="2816" max="2816" width="7.875" style="1" customWidth="1"/>
+    <col min="2817" max="2817" width="14.75" style="1" customWidth="1"/>
+    <col min="2818" max="2818" width="13.875" style="1" customWidth="1"/>
     <col min="2819" max="3071" width="9" style="1"/>
-    <col min="3072" max="3072" width="7.88671875" style="1" customWidth="1"/>
-    <col min="3073" max="3073" width="14.77734375" style="1" customWidth="1"/>
-    <col min="3074" max="3074" width="13.88671875" style="1" customWidth="1"/>
+    <col min="3072" max="3072" width="7.875" style="1" customWidth="1"/>
+    <col min="3073" max="3073" width="14.75" style="1" customWidth="1"/>
+    <col min="3074" max="3074" width="13.875" style="1" customWidth="1"/>
     <col min="3075" max="3327" width="9" style="1"/>
-    <col min="3328" max="3328" width="7.88671875" style="1" customWidth="1"/>
-    <col min="3329" max="3329" width="14.77734375" style="1" customWidth="1"/>
-    <col min="3330" max="3330" width="13.88671875" style="1" customWidth="1"/>
+    <col min="3328" max="3328" width="7.875" style="1" customWidth="1"/>
+    <col min="3329" max="3329" width="14.75" style="1" customWidth="1"/>
+    <col min="3330" max="3330" width="13.875" style="1" customWidth="1"/>
     <col min="3331" max="3583" width="9" style="1"/>
-    <col min="3584" max="3584" width="7.88671875" style="1" customWidth="1"/>
-    <col min="3585" max="3585" width="14.77734375" style="1" customWidth="1"/>
-    <col min="3586" max="3586" width="13.88671875" style="1" customWidth="1"/>
+    <col min="3584" max="3584" width="7.875" style="1" customWidth="1"/>
+    <col min="3585" max="3585" width="14.75" style="1" customWidth="1"/>
+    <col min="3586" max="3586" width="13.875" style="1" customWidth="1"/>
     <col min="3587" max="3839" width="9" style="1"/>
-    <col min="3840" max="3840" width="7.88671875" style="1" customWidth="1"/>
-    <col min="3841" max="3841" width="14.77734375" style="1" customWidth="1"/>
-    <col min="3842" max="3842" width="13.88671875" style="1" customWidth="1"/>
+    <col min="3840" max="3840" width="7.875" style="1" customWidth="1"/>
+    <col min="3841" max="3841" width="14.75" style="1" customWidth="1"/>
+    <col min="3842" max="3842" width="13.875" style="1" customWidth="1"/>
     <col min="3843" max="4095" width="9" style="1"/>
-    <col min="4096" max="4096" width="7.88671875" style="1" customWidth="1"/>
-    <col min="4097" max="4097" width="14.77734375" style="1" customWidth="1"/>
-    <col min="4098" max="4098" width="13.88671875" style="1" customWidth="1"/>
+    <col min="4096" max="4096" width="7.875" style="1" customWidth="1"/>
+    <col min="4097" max="4097" width="14.75" style="1" customWidth="1"/>
+    <col min="4098" max="4098" width="13.875" style="1" customWidth="1"/>
     <col min="4099" max="4351" width="9" style="1"/>
-    <col min="4352" max="4352" width="7.88671875" style="1" customWidth="1"/>
-    <col min="4353" max="4353" width="14.77734375" style="1" customWidth="1"/>
-    <col min="4354" max="4354" width="13.88671875" style="1" customWidth="1"/>
+    <col min="4352" max="4352" width="7.875" style="1" customWidth="1"/>
+    <col min="4353" max="4353" width="14.75" style="1" customWidth="1"/>
+    <col min="4354" max="4354" width="13.875" style="1" customWidth="1"/>
     <col min="4355" max="4607" width="9" style="1"/>
-    <col min="4608" max="4608" width="7.88671875" style="1" customWidth="1"/>
-    <col min="4609" max="4609" width="14.77734375" style="1" customWidth="1"/>
-    <col min="4610" max="4610" width="13.88671875" style="1" customWidth="1"/>
+    <col min="4608" max="4608" width="7.875" style="1" customWidth="1"/>
+    <col min="4609" max="4609" width="14.75" style="1" customWidth="1"/>
+    <col min="4610" max="4610" width="13.875" style="1" customWidth="1"/>
     <col min="4611" max="4863" width="9" style="1"/>
-    <col min="4864" max="4864" width="7.88671875" style="1" customWidth="1"/>
-    <col min="4865" max="4865" width="14.77734375" style="1" customWidth="1"/>
-    <col min="4866" max="4866" width="13.88671875" style="1" customWidth="1"/>
+    <col min="4864" max="4864" width="7.875" style="1" customWidth="1"/>
+    <col min="4865" max="4865" width="14.75" style="1" customWidth="1"/>
+    <col min="4866" max="4866" width="13.875" style="1" customWidth="1"/>
     <col min="4867" max="5119" width="9" style="1"/>
-    <col min="5120" max="5120" width="7.88671875" style="1" customWidth="1"/>
-    <col min="5121" max="5121" width="14.77734375" style="1" customWidth="1"/>
-    <col min="5122" max="5122" width="13.88671875" style="1" customWidth="1"/>
+    <col min="5120" max="5120" width="7.875" style="1" customWidth="1"/>
+    <col min="5121" max="5121" width="14.75" style="1" customWidth="1"/>
+    <col min="5122" max="5122" width="13.875" style="1" customWidth="1"/>
     <col min="5123" max="5375" width="9" style="1"/>
-    <col min="5376" max="5376" width="7.88671875" style="1" customWidth="1"/>
-    <col min="5377" max="5377" width="14.77734375" style="1" customWidth="1"/>
-    <col min="5378" max="5378" width="13.88671875" style="1" customWidth="1"/>
+    <col min="5376" max="5376" width="7.875" style="1" customWidth="1"/>
+    <col min="5377" max="5377" width="14.75" style="1" customWidth="1"/>
+    <col min="5378" max="5378" width="13.875" style="1" customWidth="1"/>
     <col min="5379" max="5631" width="9" style="1"/>
-    <col min="5632" max="5632" width="7.88671875" style="1" customWidth="1"/>
-    <col min="5633" max="5633" width="14.77734375" style="1" customWidth="1"/>
-    <col min="5634" max="5634" width="13.88671875" style="1" customWidth="1"/>
+    <col min="5632" max="5632" width="7.875" style="1" customWidth="1"/>
+    <col min="5633" max="5633" width="14.75" style="1" customWidth="1"/>
+    <col min="5634" max="5634" width="13.875" style="1" customWidth="1"/>
     <col min="5635" max="5887" width="9" style="1"/>
-    <col min="5888" max="5888" width="7.88671875" style="1" customWidth="1"/>
-    <col min="5889" max="5889" width="14.77734375" style="1" customWidth="1"/>
-    <col min="5890" max="5890" width="13.88671875" style="1" customWidth="1"/>
+    <col min="5888" max="5888" width="7.875" style="1" customWidth="1"/>
+    <col min="5889" max="5889" width="14.75" style="1" customWidth="1"/>
+    <col min="5890" max="5890" width="13.875" style="1" customWidth="1"/>
     <col min="5891" max="6143" width="9" style="1"/>
-    <col min="6144" max="6144" width="7.88671875" style="1" customWidth="1"/>
-    <col min="6145" max="6145" width="14.77734375" style="1" customWidth="1"/>
-    <col min="6146" max="6146" width="13.88671875" style="1" customWidth="1"/>
+    <col min="6144" max="6144" width="7.875" style="1" customWidth="1"/>
+    <col min="6145" max="6145" width="14.75" style="1" customWidth="1"/>
+    <col min="6146" max="6146" width="13.875" style="1" customWidth="1"/>
     <col min="6147" max="6399" width="9" style="1"/>
-    <col min="6400" max="6400" width="7.88671875" style="1" customWidth="1"/>
-    <col min="6401" max="6401" width="14.77734375" style="1" customWidth="1"/>
-    <col min="6402" max="6402" width="13.88671875" style="1" customWidth="1"/>
+    <col min="6400" max="6400" width="7.875" style="1" customWidth="1"/>
+    <col min="6401" max="6401" width="14.75" style="1" customWidth="1"/>
+    <col min="6402" max="6402" width="13.875" style="1" customWidth="1"/>
     <col min="6403" max="6655" width="9" style="1"/>
-    <col min="6656" max="6656" width="7.88671875" style="1" customWidth="1"/>
-    <col min="6657" max="6657" width="14.77734375" style="1" customWidth="1"/>
-    <col min="6658" max="6658" width="13.88671875" style="1" customWidth="1"/>
+    <col min="6656" max="6656" width="7.875" style="1" customWidth="1"/>
+    <col min="6657" max="6657" width="14.75" style="1" customWidth="1"/>
+    <col min="6658" max="6658" width="13.875" style="1" customWidth="1"/>
     <col min="6659" max="6911" width="9" style="1"/>
-    <col min="6912" max="6912" width="7.88671875" style="1" customWidth="1"/>
-    <col min="6913" max="6913" width="14.77734375" style="1" customWidth="1"/>
-    <col min="6914" max="6914" width="13.88671875" style="1" customWidth="1"/>
+    <col min="6912" max="6912" width="7.875" style="1" customWidth="1"/>
+    <col min="6913" max="6913" width="14.75" style="1" customWidth="1"/>
+    <col min="6914" max="6914" width="13.875" style="1" customWidth="1"/>
     <col min="6915" max="7167" width="9" style="1"/>
-    <col min="7168" max="7168" width="7.88671875" style="1" customWidth="1"/>
-    <col min="7169" max="7169" width="14.77734375" style="1" customWidth="1"/>
-    <col min="7170" max="7170" width="13.88671875" style="1" customWidth="1"/>
+    <col min="7168" max="7168" width="7.875" style="1" customWidth="1"/>
+    <col min="7169" max="7169" width="14.75" style="1" customWidth="1"/>
+    <col min="7170" max="7170" width="13.875" style="1" customWidth="1"/>
     <col min="7171" max="7423" width="9" style="1"/>
-    <col min="7424" max="7424" width="7.88671875" style="1" customWidth="1"/>
-    <col min="7425" max="7425" width="14.77734375" style="1" customWidth="1"/>
-    <col min="7426" max="7426" width="13.88671875" style="1" customWidth="1"/>
+    <col min="7424" max="7424" width="7.875" style="1" customWidth="1"/>
+    <col min="7425" max="7425" width="14.75" style="1" customWidth="1"/>
+    <col min="7426" max="7426" width="13.875" style="1" customWidth="1"/>
     <col min="7427" max="7679" width="9" style="1"/>
-    <col min="7680" max="7680" width="7.88671875" style="1" customWidth="1"/>
-    <col min="7681" max="7681" width="14.77734375" style="1" customWidth="1"/>
-    <col min="7682" max="7682" width="13.88671875" style="1" customWidth="1"/>
+    <col min="7680" max="7680" width="7.875" style="1" customWidth="1"/>
+    <col min="7681" max="7681" width="14.75" style="1" customWidth="1"/>
+    <col min="7682" max="7682" width="13.875" style="1" customWidth="1"/>
     <col min="7683" max="7935" width="9" style="1"/>
-    <col min="7936" max="7936" width="7.88671875" style="1" customWidth="1"/>
-    <col min="7937" max="7937" width="14.77734375" style="1" customWidth="1"/>
-    <col min="7938" max="7938" width="13.88671875" style="1" customWidth="1"/>
+    <col min="7936" max="7936" width="7.875" style="1" customWidth="1"/>
+    <col min="7937" max="7937" width="14.75" style="1" customWidth="1"/>
+    <col min="7938" max="7938" width="13.875" style="1" customWidth="1"/>
     <col min="7939" max="8191" width="9" style="1"/>
-    <col min="8192" max="8192" width="7.88671875" style="1" customWidth="1"/>
-    <col min="8193" max="8193" width="14.77734375" style="1" customWidth="1"/>
-    <col min="8194" max="8194" width="13.88671875" style="1" customWidth="1"/>
+    <col min="8192" max="8192" width="7.875" style="1" customWidth="1"/>
+    <col min="8193" max="8193" width="14.75" style="1" customWidth="1"/>
+    <col min="8194" max="8194" width="13.875" style="1" customWidth="1"/>
     <col min="8195" max="8447" width="9" style="1"/>
-    <col min="8448" max="8448" width="7.88671875" style="1" customWidth="1"/>
-    <col min="8449" max="8449" width="14.77734375" style="1" customWidth="1"/>
-    <col min="8450" max="8450" width="13.88671875" style="1" customWidth="1"/>
+    <col min="8448" max="8448" width="7.875" style="1" customWidth="1"/>
+    <col min="8449" max="8449" width="14.75" style="1" customWidth="1"/>
+    <col min="8450" max="8450" width="13.875" style="1" customWidth="1"/>
     <col min="8451" max="8703" width="9" style="1"/>
-    <col min="8704" max="8704" width="7.88671875" style="1" customWidth="1"/>
-    <col min="8705" max="8705" width="14.77734375" style="1" customWidth="1"/>
-    <col min="8706" max="8706" width="13.88671875" style="1" customWidth="1"/>
+    <col min="8704" max="8704" width="7.875" style="1" customWidth="1"/>
+    <col min="8705" max="8705" width="14.75" style="1" customWidth="1"/>
+    <col min="8706" max="8706" width="13.875" style="1" customWidth="1"/>
     <col min="8707" max="8959" width="9" style="1"/>
-    <col min="8960" max="8960" width="7.88671875" style="1" customWidth="1"/>
-    <col min="8961" max="8961" width="14.77734375" style="1" customWidth="1"/>
-    <col min="8962" max="8962" width="13.88671875" style="1" customWidth="1"/>
+    <col min="8960" max="8960" width="7.875" style="1" customWidth="1"/>
+    <col min="8961" max="8961" width="14.75" style="1" customWidth="1"/>
+    <col min="8962" max="8962" width="13.875" style="1" customWidth="1"/>
     <col min="8963" max="9215" width="9" style="1"/>
-    <col min="9216" max="9216" width="7.88671875" style="1" customWidth="1"/>
-    <col min="9217" max="9217" width="14.77734375" style="1" customWidth="1"/>
-    <col min="9218" max="9218" width="13.88671875" style="1" customWidth="1"/>
+    <col min="9216" max="9216" width="7.875" style="1" customWidth="1"/>
+    <col min="9217" max="9217" width="14.75" style="1" customWidth="1"/>
+    <col min="9218" max="9218" width="13.875" style="1" customWidth="1"/>
     <col min="9219" max="9471" width="9" style="1"/>
-    <col min="9472" max="9472" width="7.88671875" style="1" customWidth="1"/>
-    <col min="9473" max="9473" width="14.77734375" style="1" customWidth="1"/>
-    <col min="9474" max="9474" width="13.88671875" style="1" customWidth="1"/>
+    <col min="9472" max="9472" width="7.875" style="1" customWidth="1"/>
+    <col min="9473" max="9473" width="14.75" style="1" customWidth="1"/>
+    <col min="9474" max="9474" width="13.875" style="1" customWidth="1"/>
     <col min="9475" max="9727" width="9" style="1"/>
-    <col min="9728" max="9728" width="7.88671875" style="1" customWidth="1"/>
-    <col min="9729" max="9729" width="14.77734375" style="1" customWidth="1"/>
-    <col min="9730" max="9730" width="13.88671875" style="1" customWidth="1"/>
+    <col min="9728" max="9728" width="7.875" style="1" customWidth="1"/>
+    <col min="9729" max="9729" width="14.75" style="1" customWidth="1"/>
+    <col min="9730" max="9730" width="13.875" style="1" customWidth="1"/>
     <col min="9731" max="9983" width="9" style="1"/>
-    <col min="9984" max="9984" width="7.88671875" style="1" customWidth="1"/>
-    <col min="9985" max="9985" width="14.77734375" style="1" customWidth="1"/>
-    <col min="9986" max="9986" width="13.88671875" style="1" customWidth="1"/>
+    <col min="9984" max="9984" width="7.875" style="1" customWidth="1"/>
+    <col min="9985" max="9985" width="14.75" style="1" customWidth="1"/>
+    <col min="9986" max="9986" width="13.875" style="1" customWidth="1"/>
     <col min="9987" max="10239" width="9" style="1"/>
-    <col min="10240" max="10240" width="7.88671875" style="1" customWidth="1"/>
-    <col min="10241" max="10241" width="14.77734375" style="1" customWidth="1"/>
-    <col min="10242" max="10242" width="13.88671875" style="1" customWidth="1"/>
+    <col min="10240" max="10240" width="7.875" style="1" customWidth="1"/>
+    <col min="10241" max="10241" width="14.75" style="1" customWidth="1"/>
+    <col min="10242" max="10242" width="13.875" style="1" customWidth="1"/>
     <col min="10243" max="10495" width="9" style="1"/>
-    <col min="10496" max="10496" width="7.88671875" style="1" customWidth="1"/>
-    <col min="10497" max="10497" width="14.77734375" style="1" customWidth="1"/>
-    <col min="10498" max="10498" width="13.88671875" style="1" customWidth="1"/>
+    <col min="10496" max="10496" width="7.875" style="1" customWidth="1"/>
+    <col min="10497" max="10497" width="14.75" style="1" customWidth="1"/>
+    <col min="10498" max="10498" width="13.875" style="1" customWidth="1"/>
     <col min="10499" max="10751" width="9" style="1"/>
-    <col min="10752" max="10752" width="7.88671875" style="1" customWidth="1"/>
-    <col min="10753" max="10753" width="14.77734375" style="1" customWidth="1"/>
-    <col min="10754" max="10754" width="13.88671875" style="1" customWidth="1"/>
+    <col min="10752" max="10752" width="7.875" style="1" customWidth="1"/>
+    <col min="10753" max="10753" width="14.75" style="1" customWidth="1"/>
+    <col min="10754" max="10754" width="13.875" style="1" customWidth="1"/>
     <col min="10755" max="11007" width="9" style="1"/>
-    <col min="11008" max="11008" width="7.88671875" style="1" customWidth="1"/>
-    <col min="11009" max="11009" width="14.77734375" style="1" customWidth="1"/>
-    <col min="11010" max="11010" width="13.88671875" style="1" customWidth="1"/>
+    <col min="11008" max="11008" width="7.875" style="1" customWidth="1"/>
+    <col min="11009" max="11009" width="14.75" style="1" customWidth="1"/>
+    <col min="11010" max="11010" width="13.875" style="1" customWidth="1"/>
     <col min="11011" max="11263" width="9" style="1"/>
-    <col min="11264" max="11264" width="7.88671875" style="1" customWidth="1"/>
-    <col min="11265" max="11265" width="14.77734375" style="1" customWidth="1"/>
-    <col min="11266" max="11266" width="13.88671875" style="1" customWidth="1"/>
+    <col min="11264" max="11264" width="7.875" style="1" customWidth="1"/>
+    <col min="11265" max="11265" width="14.75" style="1" customWidth="1"/>
+    <col min="11266" max="11266" width="13.875" style="1" customWidth="1"/>
     <col min="11267" max="11519" width="9" style="1"/>
-    <col min="11520" max="11520" width="7.88671875" style="1" customWidth="1"/>
-    <col min="11521" max="11521" width="14.77734375" style="1" customWidth="1"/>
-    <col min="11522" max="11522" width="13.88671875" style="1" customWidth="1"/>
+    <col min="11520" max="11520" width="7.875" style="1" customWidth="1"/>
+    <col min="11521" max="11521" width="14.75" style="1" customWidth="1"/>
+    <col min="11522" max="11522" width="13.875" style="1" customWidth="1"/>
     <col min="11523" max="11775" width="9" style="1"/>
-    <col min="11776" max="11776" width="7.88671875" style="1" customWidth="1"/>
-    <col min="11777" max="11777" width="14.77734375" style="1" customWidth="1"/>
-    <col min="11778" max="11778" width="13.88671875" style="1" customWidth="1"/>
+    <col min="11776" max="11776" width="7.875" style="1" customWidth="1"/>
+    <col min="11777" max="11777" width="14.75" style="1" customWidth="1"/>
+    <col min="11778" max="11778" width="13.875" style="1" customWidth="1"/>
     <col min="11779" max="12031" width="9" style="1"/>
-    <col min="12032" max="12032" width="7.88671875" style="1" customWidth="1"/>
-    <col min="12033" max="12033" width="14.77734375" style="1" customWidth="1"/>
-    <col min="12034" max="12034" width="13.88671875" style="1" customWidth="1"/>
+    <col min="12032" max="12032" width="7.875" style="1" customWidth="1"/>
+    <col min="12033" max="12033" width="14.75" style="1" customWidth="1"/>
+    <col min="12034" max="12034" width="13.875" style="1" customWidth="1"/>
     <col min="12035" max="12287" width="9" style="1"/>
-    <col min="12288" max="12288" width="7.88671875" style="1" customWidth="1"/>
-    <col min="12289" max="12289" width="14.77734375" style="1" customWidth="1"/>
-    <col min="12290" max="12290" width="13.88671875" style="1" customWidth="1"/>
+    <col min="12288" max="12288" width="7.875" style="1" customWidth="1"/>
+    <col min="12289" max="12289" width="14.75" style="1" customWidth="1"/>
+    <col min="12290" max="12290" width="13.875" style="1" customWidth="1"/>
     <col min="12291" max="12543" width="9" style="1"/>
-    <col min="12544" max="12544" width="7.88671875" style="1" customWidth="1"/>
-    <col min="12545" max="12545" width="14.77734375" style="1" customWidth="1"/>
-    <col min="12546" max="12546" width="13.88671875" style="1" customWidth="1"/>
+    <col min="12544" max="12544" width="7.875" style="1" customWidth="1"/>
+    <col min="12545" max="12545" width="14.75" style="1" customWidth="1"/>
+    <col min="12546" max="12546" width="13.875" style="1" customWidth="1"/>
     <col min="12547" max="12799" width="9" style="1"/>
-    <col min="12800" max="12800" width="7.88671875" style="1" customWidth="1"/>
-    <col min="12801" max="12801" width="14.77734375" style="1" customWidth="1"/>
-    <col min="12802" max="12802" width="13.88671875" style="1" customWidth="1"/>
+    <col min="12800" max="12800" width="7.875" style="1" customWidth="1"/>
+    <col min="12801" max="12801" width="14.75" style="1" customWidth="1"/>
+    <col min="12802" max="12802" width="13.875" style="1" customWidth="1"/>
     <col min="12803" max="13055" width="9" style="1"/>
-    <col min="13056" max="13056" width="7.88671875" style="1" customWidth="1"/>
-    <col min="13057" max="13057" width="14.77734375" style="1" customWidth="1"/>
-    <col min="13058" max="13058" width="13.88671875" style="1" customWidth="1"/>
+    <col min="13056" max="13056" width="7.875" style="1" customWidth="1"/>
+    <col min="13057" max="13057" width="14.75" style="1" customWidth="1"/>
+    <col min="13058" max="13058" width="13.875" style="1" customWidth="1"/>
     <col min="13059" max="13311" width="9" style="1"/>
-    <col min="13312" max="13312" width="7.88671875" style="1" customWidth="1"/>
-    <col min="13313" max="13313" width="14.77734375" style="1" customWidth="1"/>
-    <col min="13314" max="13314" width="13.88671875" style="1" customWidth="1"/>
+    <col min="13312" max="13312" width="7.875" style="1" customWidth="1"/>
+    <col min="13313" max="13313" width="14.75" style="1" customWidth="1"/>
+    <col min="13314" max="13314" width="13.875" style="1" customWidth="1"/>
     <col min="13315" max="13567" width="9" style="1"/>
-    <col min="13568" max="13568" width="7.88671875" style="1" customWidth="1"/>
-    <col min="13569" max="13569" width="14.77734375" style="1" customWidth="1"/>
-    <col min="13570" max="13570" width="13.88671875" style="1" customWidth="1"/>
+    <col min="13568" max="13568" width="7.875" style="1" customWidth="1"/>
+    <col min="13569" max="13569" width="14.75" style="1" customWidth="1"/>
+    <col min="13570" max="13570" width="13.875" style="1" customWidth="1"/>
     <col min="13571" max="13823" width="9" style="1"/>
-    <col min="13824" max="13824" width="7.88671875" style="1" customWidth="1"/>
-    <col min="13825" max="13825" width="14.77734375" style="1" customWidth="1"/>
-    <col min="13826" max="13826" width="13.88671875" style="1" customWidth="1"/>
+    <col min="13824" max="13824" width="7.875" style="1" customWidth="1"/>
+    <col min="13825" max="13825" width="14.75" style="1" customWidth="1"/>
+    <col min="13826" max="13826" width="13.875" style="1" customWidth="1"/>
     <col min="13827" max="14079" width="9" style="1"/>
-    <col min="14080" max="14080" width="7.88671875" style="1" customWidth="1"/>
-    <col min="14081" max="14081" width="14.77734375" style="1" customWidth="1"/>
-    <col min="14082" max="14082" width="13.88671875" style="1" customWidth="1"/>
+    <col min="14080" max="14080" width="7.875" style="1" customWidth="1"/>
+    <col min="14081" max="14081" width="14.75" style="1" customWidth="1"/>
+    <col min="14082" max="14082" width="13.875" style="1" customWidth="1"/>
     <col min="14083" max="14335" width="9" style="1"/>
-    <col min="14336" max="14336" width="7.88671875" style="1" customWidth="1"/>
-    <col min="14337" max="14337" width="14.77734375" style="1" customWidth="1"/>
-    <col min="14338" max="14338" width="13.88671875" style="1" customWidth="1"/>
+    <col min="14336" max="14336" width="7.875" style="1" customWidth="1"/>
+    <col min="14337" max="14337" width="14.75" style="1" customWidth="1"/>
+    <col min="14338" max="14338" width="13.875" style="1" customWidth="1"/>
     <col min="14339" max="14591" width="9" style="1"/>
-    <col min="14592" max="14592" width="7.88671875" style="1" customWidth="1"/>
-    <col min="14593" max="14593" width="14.77734375" style="1" customWidth="1"/>
-    <col min="14594" max="14594" width="13.88671875" style="1" customWidth="1"/>
+    <col min="14592" max="14592" width="7.875" style="1" customWidth="1"/>
+    <col min="14593" max="14593" width="14.75" style="1" customWidth="1"/>
+    <col min="14594" max="14594" width="13.875" style="1" customWidth="1"/>
     <col min="14595" max="14847" width="9" style="1"/>
-    <col min="14848" max="14848" width="7.88671875" style="1" customWidth="1"/>
-    <col min="14849" max="14849" width="14.77734375" style="1" customWidth="1"/>
-    <col min="14850" max="14850" width="13.88671875" style="1" customWidth="1"/>
+    <col min="14848" max="14848" width="7.875" style="1" customWidth="1"/>
+    <col min="14849" max="14849" width="14.75" style="1" customWidth="1"/>
+    <col min="14850" max="14850" width="13.875" style="1" customWidth="1"/>
     <col min="14851" max="15103" width="9" style="1"/>
-    <col min="15104" max="15104" width="7.88671875" style="1" customWidth="1"/>
-    <col min="15105" max="15105" width="14.77734375" style="1" customWidth="1"/>
-    <col min="15106" max="15106" width="13.88671875" style="1" customWidth="1"/>
+    <col min="15104" max="15104" width="7.875" style="1" customWidth="1"/>
+    <col min="15105" max="15105" width="14.75" style="1" customWidth="1"/>
+    <col min="15106" max="15106" width="13.875" style="1" customWidth="1"/>
     <col min="15107" max="15359" width="9" style="1"/>
-    <col min="15360" max="15360" width="7.88671875" style="1" customWidth="1"/>
-    <col min="15361" max="15361" width="14.77734375" style="1" customWidth="1"/>
-    <col min="15362" max="15362" width="13.88671875" style="1" customWidth="1"/>
+    <col min="15360" max="15360" width="7.875" style="1" customWidth="1"/>
+    <col min="15361" max="15361" width="14.75" style="1" customWidth="1"/>
+    <col min="15362" max="15362" width="13.875" style="1" customWidth="1"/>
     <col min="15363" max="15615" width="9" style="1"/>
-    <col min="15616" max="15616" width="7.88671875" style="1" customWidth="1"/>
-    <col min="15617" max="15617" width="14.77734375" style="1" customWidth="1"/>
-    <col min="15618" max="15618" width="13.88671875" style="1" customWidth="1"/>
+    <col min="15616" max="15616" width="7.875" style="1" customWidth="1"/>
+    <col min="15617" max="15617" width="14.75" style="1" customWidth="1"/>
+    <col min="15618" max="15618" width="13.875" style="1" customWidth="1"/>
     <col min="15619" max="15871" width="9" style="1"/>
-    <col min="15872" max="15872" width="7.88671875" style="1" customWidth="1"/>
-    <col min="15873" max="15873" width="14.77734375" style="1" customWidth="1"/>
-    <col min="15874" max="15874" width="13.88671875" style="1" customWidth="1"/>
+    <col min="15872" max="15872" width="7.875" style="1" customWidth="1"/>
+    <col min="15873" max="15873" width="14.75" style="1" customWidth="1"/>
+    <col min="15874" max="15874" width="13.875" style="1" customWidth="1"/>
     <col min="15875" max="16127" width="9" style="1"/>
-    <col min="16128" max="16128" width="7.88671875" style="1" customWidth="1"/>
-    <col min="16129" max="16129" width="14.77734375" style="1" customWidth="1"/>
-    <col min="16130" max="16130" width="13.88671875" style="1" customWidth="1"/>
+    <col min="16128" max="16128" width="7.875" style="1" customWidth="1"/>
+    <col min="16129" max="16129" width="14.75" style="1" customWidth="1"/>
+    <col min="16130" max="16130" width="13.875" style="1" customWidth="1"/>
     <col min="16131" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>

--- a/controller/src/main/resources/jxls_templates/qingqiushu_guonei.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_guonei.xlsx
@@ -57,7 +57,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
           </rPr>
           <t>jx:area(lastCell="H37")</t>
         </r>
@@ -68,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
   <si>
     <t>請　求　書</t>
     <phoneticPr fontId="4"/>
@@ -439,51 +438,63 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
+    <t>${pd.businesscode}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${pd.pjnamechinese}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${pd.contractnumber}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${pd.claimnumber}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${pd.openingdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${pd.enddate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${pd.currencyposition}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${pd.claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${pd.deliveryfinshdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${pd.remarks}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>${pd.custochinese}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${pd.businesscode}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.pjnamechinese}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.contractnumber}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.claimnumber}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.openingdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.enddate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.currencyposition}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.deliveryfinshdate}</t>
+    <t>${pd.custoenglish}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${pd.placechinese}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${pd.pjnamejapanese}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>備考</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.remarks}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -553,13 +564,11 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -636,7 +645,6 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -883,7 +891,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -982,6 +990,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="12" fillId="2" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="40" fontId="12" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1386,7 +1400,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1399,14 +1413,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="D1" s="37" t="s">
+      <c r="B1" s="38"/>
+      <c r="D1" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="38"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="32" t="s">
@@ -1416,32 +1430,34 @@
       <c r="C2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="C3" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="32" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="32" t="s">
@@ -1451,8 +1467,8 @@
       <c r="C5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="34" t="s">
@@ -1462,132 +1478,136 @@
       <c r="C6" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="C7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="32" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
     </row>
     <row r="9" spans="1:5" s="16" customFormat="1" ht="13.5">
       <c r="A9" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="14" t="s">
+        <v>68</v>
+      </c>
       <c r="C10" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="32" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="32" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="32" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="32" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="32" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="32" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="32" t="s">
@@ -1597,8 +1617,8 @@
       <c r="C17" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="32" t="s">
@@ -1608,34 +1628,34 @@
       <c r="C18" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="32" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
     </row>
     <row r="20" spans="1:5" s="16" customFormat="1" ht="13.5">
       <c r="A20" s="32" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
     </row>
     <row r="21" spans="1:5" s="16" customFormat="1" ht="13.5">
       <c r="A21" s="32" t="s">
@@ -1645,8 +1665,8 @@
       <c r="C21" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
     </row>
     <row r="22" spans="1:5" s="16" customFormat="1" ht="13.5">
       <c r="A22" s="32" t="s">
@@ -1656,8 +1676,8 @@
       <c r="C22" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42"/>
     </row>
     <row r="23" spans="1:5" s="16" customFormat="1" ht="13.5">
       <c r="A23" s="33" t="s">
@@ -1667,8 +1687,8 @@
       <c r="C23" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="42"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="33" t="s">
@@ -1678,32 +1698,35 @@
       <c r="C24" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="40"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="15"/>
+      <c r="B25" s="15" t="str">
+        <f>"GF-"&amp;B12</f>
+        <v>GF-${pd.contractnumber}</v>
+      </c>
       <c r="C25" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="42"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40"/>
+        <v>69</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="41"/>
+      <c r="E26" s="42"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="33" t="s">
@@ -1715,8 +1738,8 @@
       <c r="C27" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="42"/>
     </row>
     <row r="28" spans="1:5" ht="13.5" thickBot="1">
       <c r="A28" s="33" t="s">
@@ -1728,8 +1751,8 @@
       <c r="C28" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="42"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="44"/>
     </row>
     <row r="29" spans="1:5" ht="13.5">
       <c r="A29" s="12"/>
@@ -1786,7 +1809,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2049,16 +2072,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" ht="28.5" customHeight="1">
       <c r="A2" s="2"/>
@@ -2075,13 +2098,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A3" s="48" t="str">
+      <c r="A3" s="50" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
@@ -2206,64 +2229,64 @@
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45" t="s">
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="45" t="s">
+      <c r="F12" s="48"/>
+      <c r="G12" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="46"/>
+      <c r="H12" s="48"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1">
-      <c r="A13" s="62" t="str">
+      <c r="A13" s="64" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="B13" s="56" t="str">
+      <c r="B13" s="58" t="str">
         <f>記入!B11</f>
         <v>${pd.pjnamechinese}</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="49" t="str">
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="51" t="str">
         <f>記入!B14</f>
         <v>${pd.openingdate}</v>
       </c>
-      <c r="F13" s="50"/>
+      <c r="F13" s="52"/>
       <c r="G13" s="23"/>
       <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1">
-      <c r="A14" s="63"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="53" t="s">
+      <c r="A14" s="65"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="52"/>
-      <c r="G14" s="54" t="str">
+      <c r="F14" s="54"/>
+      <c r="G14" s="56" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
-      <c r="H14" s="55"/>
+      <c r="H14" s="57"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1">
-      <c r="A15" s="63"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="51" t="str">
+      <c r="A15" s="65"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="53" t="str">
         <f>記入!B15</f>
         <v>${pd.enddate}</v>
       </c>
-      <c r="F15" s="52"/>
+      <c r="F15" s="54"/>
       <c r="G15" s="23"/>
       <c r="H15" s="24"/>
     </row>
@@ -2428,19 +2451,19 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="64">
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="66">
         <f>SUM(G13:H31)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="65"/>
+      <c r="H32" s="67"/>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1">
       <c r="A33" s="2"/>

--- a/controller/src/main/resources/jxls_templates/qingqiushu_guonei.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_guonei.xlsx
@@ -57,6 +57,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t>jx:area(lastCell="H37")</t>
         </r>
@@ -454,14 +455,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${pd.openingdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.enddate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>${pd.currencyposition}</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -470,31 +463,39 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>${pd.remarks}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${pd.custochinese}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${pd.custoenglish}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${pd.placechinese}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${pd.pjnamejapanese}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${statime[0]}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${statime[1]}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>${pd.deliveryfinshdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.remarks}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.custochinese}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.custoenglish}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.placechinese}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.pjnamejapanese}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>備考</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -564,11 +565,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -645,6 +648,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -945,9 +949,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1087,6 +1088,10 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1400,7 +1405,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1413,346 +1418,346 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="D1" s="39" t="s">
+      <c r="B1" s="37"/>
+      <c r="D1" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="14"/>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
+    </row>
+    <row r="9" spans="1:5" s="16" customFormat="1" ht="13.5">
+      <c r="A9" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="42"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
-    </row>
-    <row r="9" spans="1:5" s="16" customFormat="1" ht="13.5">
-      <c r="A9" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="31" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="31" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="19" t="s">
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
+    </row>
+    <row r="20" spans="1:5" s="16" customFormat="1" ht="13.5">
+      <c r="A20" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="21" t="s">
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+    </row>
+    <row r="21" spans="1:5" s="16" customFormat="1" ht="13.5">
+      <c r="A21" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="21" t="s">
+      <c r="D21" s="40"/>
+      <c r="E21" s="41"/>
+    </row>
+    <row r="22" spans="1:5" s="16" customFormat="1" ht="13.5">
+      <c r="A22" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
-    </row>
-    <row r="20" spans="1:5" s="16" customFormat="1" ht="13.5">
-      <c r="A20" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42"/>
-    </row>
-    <row r="21" spans="1:5" s="16" customFormat="1" ht="13.5">
-      <c r="A21" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="21" t="s">
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
+    </row>
+    <row r="23" spans="1:5" s="16" customFormat="1" ht="13.5">
+      <c r="A23" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
-    </row>
-    <row r="22" spans="1:5" s="16" customFormat="1" ht="13.5">
-      <c r="A22" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="21" t="s">
+      <c r="D23" s="40"/>
+      <c r="E23" s="41"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42"/>
-    </row>
-    <row r="23" spans="1:5" s="16" customFormat="1" ht="13.5">
-      <c r="A23" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="42"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="41"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="32" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="15" t="str">
         <f>"GF-"&amp;B12</f>
         <v>GF-${pd.contractnumber}</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="42"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="21" t="s">
+      <c r="A26" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="42"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="42"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
     </row>
     <row r="28" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="32" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="43"/>
-      <c r="E28" s="44"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="43"/>
     </row>
     <row r="29" spans="1:5" ht="13.5">
       <c r="A29" s="12"/>
@@ -2072,16 +2077,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" ht="28.5" customHeight="1">
       <c r="A2" s="2"/>
@@ -2098,13 +2103,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A3" s="50" t="str">
+      <c r="A3" s="49" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
@@ -2113,40 +2118,40 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="26" t="str">
+      <c r="B5" s="25" t="str">
         <f>記入!B8</f>
         <v>${pd.businesscode}</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="26" t="str">
+      <c r="B6" s="25" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="2"/>
@@ -2155,15 +2160,15 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="26" t="str">
+      <c r="B7" s="25" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="2"/>
@@ -2172,15 +2177,15 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="27" t="str">
+      <c r="B8" s="26" t="str">
         <f>記入!B16</f>
         <v>${pd.deliveryfinshdate}</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="2"/>
@@ -2189,10 +2194,10 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="2"/>
@@ -2201,15 +2206,15 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="28">
         <f>G32</f>
         <v>0</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2229,66 +2234,66 @@
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47" t="s">
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="47" t="s">
+      <c r="F12" s="47"/>
+      <c r="G12" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="48"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1">
-      <c r="A13" s="64" t="str">
+      <c r="A13" s="63" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="B13" s="58" t="str">
+      <c r="B13" s="57" t="str">
         <f>記入!B11</f>
         <v>${pd.pjnamechinese}</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="51" t="str">
+      <c r="C13" s="58"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="50" t="str">
         <f>記入!B14</f>
-        <v>${pd.openingdate}</v>
-      </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
+        <v>${statime[0]}</v>
+      </c>
+      <c r="F13" s="51"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1">
-      <c r="A14" s="65"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="55" t="s">
+      <c r="A14" s="64"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="54"/>
-      <c r="G14" s="56" t="str">
+      <c r="F14" s="53"/>
+      <c r="G14" s="55" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
-      <c r="H14" s="57"/>
+      <c r="H14" s="56"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1">
-      <c r="A15" s="65"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="53" t="str">
+      <c r="A15" s="64"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="52" t="str">
         <f>記入!B15</f>
-        <v>${pd.enddate}</v>
-      </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
+        <v>${statime[1]}</v>
+      </c>
+      <c r="F15" s="53"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1">
       <c r="A16" s="7"/>
@@ -2451,19 +2456,19 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="66">
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="65">
         <f>SUM(G13:H31)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="67"/>
+      <c r="H32" s="66"/>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1">
       <c r="A33" s="2"/>

--- a/controller/src/main/resources/jxls_templates/qingqiushu_guonei.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_guonei.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="15" windowWidth="15900" windowHeight="12450" tabRatio="570"/>
+    <workbookView xWindow="12750" yWindow="15" windowWidth="15900" windowHeight="12450" tabRatio="570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -86,19 +86,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>パナソニックソフトウェア開発センター大連（有）</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>請求日：</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>大連市軟件園東路２３号１５＃４０１</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>郵便番号：116023</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -497,6 +485,18 @@
   <si>
     <t>${pd.deliveryfinshdate}</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中国遼寧省大連市高新技術産業園区黄浦路900号30号楼</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>郵便番号：116085</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パナソニックソフトウェア開発センター大連（有）</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -999,99 +999,99 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="12" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1404,7 +1404,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1418,346 +1418,346 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A1" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="D1" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="39"/>
+      <c r="A1" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="D1" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
+        <v>34</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="32" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
+        <v>34</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="31" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
+        <v>35</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="41"/>
+        <v>34</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
+        <v>34</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41"/>
+        <v>34</v>
+      </c>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
+        <v>35</v>
+      </c>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
     </row>
     <row r="9" spans="1:5" s="16" customFormat="1" ht="13.5">
       <c r="A9" s="32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
+        <v>34</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="31" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
+        <v>34</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
+        <v>35</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="31" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
+        <v>35</v>
+      </c>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
+        <v>35</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="67" t="s">
-        <v>67</v>
+        <v>21</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>64</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
+        <v>35</v>
+      </c>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="67" t="s">
-        <v>68</v>
+        <v>22</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>65</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41"/>
+        <v>35</v>
+      </c>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="31" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="41"/>
+        <v>35</v>
+      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
+        <v>34</v>
+      </c>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
+        <v>34</v>
+      </c>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
+        <v>35</v>
+      </c>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
     </row>
     <row r="20" spans="1:5" s="16" customFormat="1" ht="13.5">
       <c r="A20" s="31" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
+        <v>35</v>
+      </c>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
     </row>
     <row r="21" spans="1:5" s="16" customFormat="1" ht="13.5">
       <c r="A21" s="31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41"/>
+        <v>34</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
     </row>
     <row r="22" spans="1:5" s="16" customFormat="1" ht="13.5">
       <c r="A22" s="31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41"/>
+        <v>34</v>
+      </c>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42"/>
     </row>
     <row r="23" spans="1:5" s="16" customFormat="1" ht="13.5">
       <c r="A23" s="32" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41"/>
+        <v>34</v>
+      </c>
+      <c r="D23" s="41"/>
+      <c r="E23" s="42"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="41"/>
+        <v>34</v>
+      </c>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B25" s="15" t="str">
         <f>"GF-"&amp;B12</f>
         <v>GF-${pd.contractnumber}</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41"/>
+        <v>34</v>
+      </c>
+      <c r="D25" s="41"/>
+      <c r="E25" s="42"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41"/>
+        <v>34</v>
+      </c>
+      <c r="D26" s="41"/>
+      <c r="E26" s="42"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41"/>
+        <v>34</v>
+      </c>
+      <c r="D27" s="41"/>
+      <c r="E27" s="42"/>
     </row>
     <row r="28" spans="1:5" ht="13.5" thickBot="1">
       <c r="A28" s="32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="43"/>
+        <v>34</v>
+      </c>
+      <c r="D28" s="43"/>
+      <c r="E28" s="44"/>
     </row>
     <row r="29" spans="1:5" ht="13.5">
       <c r="A29" s="12"/>
@@ -1813,15 +1813,17 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
-    <col min="3" max="255" width="9" style="1"/>
+    <col min="3" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="14.125" style="1" customWidth="1"/>
+    <col min="9" max="255" width="9" style="1"/>
     <col min="256" max="256" width="7.875" style="1" customWidth="1"/>
     <col min="257" max="257" width="14.75" style="1" customWidth="1"/>
     <col min="258" max="258" width="13.875" style="1" customWidth="1"/>
@@ -2077,16 +2079,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" ht="28.5" customHeight="1">
       <c r="A2" s="2"/>
@@ -2103,15 +2105,15 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A3" s="49" t="str">
+      <c r="A3" s="50" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -2144,7 +2146,7 @@
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1">
       <c r="A6" s="25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" s="25" t="str">
         <f>記入!B12</f>
@@ -2152,7 +2154,7 @@
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -2161,7 +2163,7 @@
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1">
       <c r="A7" s="25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" s="25" t="str">
         <f>記入!B13</f>
@@ -2169,7 +2171,7 @@
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -2178,7 +2180,7 @@
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1">
       <c r="A8" s="25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="26" t="str">
         <f>記入!B16</f>
@@ -2186,7 +2188,7 @@
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2198,7 +2200,7 @@
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2207,7 +2209,7 @@
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1">
       <c r="A10" s="27" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="28">
         <f>G32</f>
@@ -2232,66 +2234,66 @@
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="47"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="48"/>
+      <c r="G12" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="48"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1">
-      <c r="A13" s="63" t="str">
+      <c r="A13" s="64" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="B13" s="57" t="str">
+      <c r="B13" s="58" t="str">
         <f>記入!B11</f>
         <v>${pd.pjnamechinese}</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="50" t="str">
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="51" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="F13" s="51"/>
+      <c r="F13" s="52"/>
       <c r="G13" s="22"/>
       <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1">
-      <c r="A14" s="64"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="55" t="str">
+      <c r="A14" s="65"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="54"/>
+      <c r="G14" s="56" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
-      <c r="H14" s="56"/>
+      <c r="H14" s="57"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1">
-      <c r="A15" s="64"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="52" t="str">
+      <c r="A15" s="65"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="53" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="F15" s="53"/>
+      <c r="F15" s="54"/>
       <c r="G15" s="22"/>
       <c r="H15" s="23"/>
     </row>
@@ -2456,19 +2458,19 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1">
-      <c r="A32" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="65">
+      <c r="A32" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="66">
         <f>SUM(G13:H31)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="66"/>
+      <c r="H32" s="67"/>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1">
       <c r="A33" s="2"/>
@@ -2482,7 +2484,7 @@
     </row>
     <row r="34" spans="1:8" ht="18" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2494,7 +2496,7 @@
     </row>
     <row r="35" spans="1:8" ht="18" customHeight="1">
       <c r="A35" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2506,7 +2508,7 @@
     </row>
     <row r="36" spans="1:8" ht="18" customHeight="1">
       <c r="A36" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2518,7 +2520,7 @@
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1">
       <c r="A37" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>

--- a/controller/src/main/resources/jxls_templates/qingqiushu_guonei.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_guonei.xlsx
@@ -1814,7 +1814,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/controller/src/main/resources/jxls_templates/qingqiushu_guonei.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_guonei.xlsx
@@ -1,74 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newtouch\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="15" windowWidth="15900" windowHeight="12450" tabRatio="570" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
     <sheet name="国内請求書" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">記入!$A$1:$D$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">国内請求書!$A$1:$H$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">国内請求書!$A$1:$H$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">記入!$A$1:$D$27</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>DONG</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>jx:area(lastCell="C27")</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>DONG</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>jx:area(lastCell="H37")</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
   <si>
     <t>請　求　書</t>
     <phoneticPr fontId="4"/>
@@ -86,11 +50,11 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>パナソニックソフトウェア開発センター大連（有）</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <t>請求日：</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>TEL：0411-84768550-1002</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -117,22 +81,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>收款银行信息：</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>收款人开户行：招商银行大连分行星海支行</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>收款人账号:　 610980097710001</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>收款人户名：松下电器软件开发（大连）有限公司</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>御中</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -141,35 +89,35 @@
     <rPh sb="4" eb="6">
       <t>ﾜﾌﾞﾝ</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>委託元（英文）</t>
     <rPh sb="4" eb="6">
       <t>ｴｲﾌﾞﾝ</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>PJ名(和文)</t>
     <rPh sb="4" eb="6">
       <t>ﾜﾌﾞﾝ</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>PJ名(中文)</t>
     <rPh sb="4" eb="6">
       <t>ﾁｭｳﾌﾞﾝ</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>契約番号</t>
     <rPh sb="0" eb="2">
       <t>ｹｲﾔｸ</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>開発開始日</t>
@@ -179,7 +127,7 @@
     <rPh sb="4" eb="5">
       <t>ﾋ</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>開発満了日</t>
@@ -192,14 +140,14 @@
     <rPh sb="4" eb="5">
       <t>ﾋ</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>納品作成日</t>
     <rPh sb="0" eb="2">
       <t>ﾉｳﾋﾝ</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>納品予定日</t>
@@ -209,7 +157,7 @@
     <rPh sb="2" eb="5">
       <t>ﾖﾃｲﾋﾞ</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>請求金額</t>
@@ -219,7 +167,7 @@
     <rPh sb="2" eb="4">
       <t>ｷﾝｶﾞｸ</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>事業場コード</t>
@@ -277,7 +225,7 @@
     <rPh sb="0" eb="2">
       <t>ﾀﾝﾄｳ</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>無用情報</t>
@@ -304,7 +252,7 @@
     <rPh sb="4" eb="6">
       <t>ﾁｭｳﾌﾞﾝ</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>通貨形式</t>
@@ -328,7 +276,7 @@
     <rPh sb="6" eb="8">
       <t>ｶｽﾞﾌﾐ</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>委託元場所（中文）</t>
@@ -338,7 +286,7 @@
     <rPh sb="6" eb="8">
       <t>ﾁｭｳﾌﾞﾝ</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>開発部署</t>
@@ -346,7 +294,7 @@
   </si>
   <si>
     <t>検収完了日</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>請求日</t>
@@ -370,19 +318,11 @@
   </si>
   <si>
     <t>到达  TO</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>出荷判定実施者</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>パナソニックソフトウェア開発センター大連（有）（PSDCD）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Office Scan</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>■以下の内容は契約管理ツールで自動生成</t>
@@ -423,102 +363,131 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>該非判定書番号</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>收款信息：</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>账户一：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>账户二：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   账户名：松下电器软件开发（大连）有限公司</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   开户行：招商银行大连分行星海支行</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   账 号:　610980097710001</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   开户行：松下电器（中国）财务有限公司</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>电话：0411-84768550-1005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>邮件：wangzhaowei@cn.panasonic.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   账  号：0127358</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有PFI（CN）的现金池账户，且可以通过PFI（CN）进行汇款的请选择汇款至账户一</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>无法通过PFI（CN）进行汇款的，请汇款至账户二</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">财务联系人： </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 王朝微</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>元</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">中国遼寧省大連市黄浦路900号30号楼&lt;116085&gt; </t>
+  </si>
+  <si>
+    <t>郵便番号：116085</t>
+  </si>
+  <si>
+    <t>${pd.custochinese}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${pd.pjnamechinese}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${pd.contractnumber}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${pd.claimnumber}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${statime[0]}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${statime[1]}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${pd.currencyposition}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${pd.claimamount}</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>${pd.businesscode}</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.pjnamechinese}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.contractnumber}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.claimnumber}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.currencyposition}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.remarks}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.custochinese}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.custoenglish}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.placechinese}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.pjnamejapanese}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>備考</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${statime[0]}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${statime[1]}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.deliveryfinshdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中国遼寧省大連市高新技術産業園区黄浦路900号30号楼</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>郵便番号：116085</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>パナソニックソフトウェア開発センター大連（有）</t>
-    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.00&quot;元&quot;"/>
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -526,7 +495,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -561,22 +530,9 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -636,19 +592,98 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="SimHei"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="SimHei"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="SimHei"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="SimHei"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="SimHei"/>
+      <family val="3"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="SimHei"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="SimHei"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="SimHei"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="SimHei"/>
+      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="SimHei"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="SimHei"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -889,13 +924,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -908,190 +943,224 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="12" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="40" fontId="12" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="40" fontId="10" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1115,7 +1184,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1157,7 +1226,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1192,7 +1261,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1400,430 +1469,392 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="45.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="11"/>
-    <col min="4" max="4" width="3.625" style="11" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="14.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="45.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="3.625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A1" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="D1" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="40"/>
+      <c r="A1" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="D1" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="75"/>
+      <c r="C2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="75"/>
+      <c r="C3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="75"/>
+      <c r="C5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="75"/>
+      <c r="C6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="75"/>
+      <c r="C7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
+    </row>
+    <row r="9" spans="1:5" s="7" customFormat="1" ht="13.5">
+      <c r="A9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="75"/>
+      <c r="C9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="75"/>
+      <c r="C10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="32" t="s">
+      <c r="B12" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="31" t="s">
+      <c r="B14" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="75"/>
+      <c r="C16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="75"/>
+      <c r="C17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="45"/>
+      <c r="E17" s="46"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="42"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="33" t="s">
+      <c r="B18" s="75"/>
+      <c r="C18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="75"/>
+      <c r="C19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
+    </row>
+    <row r="20" spans="1:5" s="7" customFormat="1" ht="13.5">
+      <c r="A20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
+    </row>
+    <row r="21" spans="1:5" s="7" customFormat="1" ht="13.5">
+      <c r="A21" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="33" t="s">
+      <c r="B21" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="45"/>
+      <c r="E21" s="46"/>
+    </row>
+    <row r="22" spans="1:5" s="7" customFormat="1" ht="13.5">
+      <c r="A22" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
-    </row>
-    <row r="9" spans="1:5" s="16" customFormat="1" ht="13.5">
-      <c r="A9" s="32" t="s">
+      <c r="B22" s="75"/>
+      <c r="C22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="45"/>
+      <c r="E22" s="46"/>
+    </row>
+    <row r="23" spans="1:5" s="7" customFormat="1" ht="13.5">
+      <c r="A23" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="31" t="s">
+      <c r="B23" s="75"/>
+      <c r="C23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
-    </row>
-    <row r="20" spans="1:5" s="16" customFormat="1" ht="13.5">
-      <c r="A20" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42"/>
-    </row>
-    <row r="21" spans="1:5" s="16" customFormat="1" ht="13.5">
-      <c r="A21" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
-    </row>
-    <row r="22" spans="1:5" s="16" customFormat="1" ht="13.5">
-      <c r="A22" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42"/>
-    </row>
-    <row r="23" spans="1:5" s="16" customFormat="1" ht="13.5">
-      <c r="A23" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="42"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="15" t="str">
-        <f>"GF-"&amp;B12</f>
-        <v>GF-${pd.contractnumber}</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="42"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="42"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="42"/>
-    </row>
-    <row r="28" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A28" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="43"/>
-      <c r="E28" s="44"/>
+      <c r="A25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="75"/>
+      <c r="C25" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="45"/>
+      <c r="E25" s="46"/>
+    </row>
+    <row r="26" spans="1:5" ht="13.5" thickBot="1">
+      <c r="A26" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="75"/>
+      <c r="C26" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
+    </row>
+    <row r="27" spans="1:5" ht="13.5">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" ht="13.5">
+      <c r="A28" s="5"/>
     </row>
     <row r="29" spans="1:5" ht="13.5">
-      <c r="A29" s="12"/>
+      <c r="A29" s="5"/>
     </row>
     <row r="30" spans="1:5" ht="13.5">
-      <c r="A30" s="12"/>
-    </row>
-    <row r="31" spans="1:5" ht="13.5">
-      <c r="A31" s="12"/>
-    </row>
-    <row r="32" spans="1:5" ht="13.5">
-      <c r="A32" s="12"/>
-    </row>
-    <row r="33" spans="1:3" s="13" customFormat="1" ht="13.5">
-      <c r="A33" s="12"/>
-      <c r="C33" s="11"/>
-    </row>
-    <row r="34" spans="1:3" s="13" customFormat="1" ht="13.5">
-      <c r="A34" s="12"/>
-      <c r="C34" s="11"/>
-    </row>
-    <row r="35" spans="1:3" s="13" customFormat="1" ht="13.5">
-      <c r="A35" s="12"/>
-      <c r="C35" s="11"/>
-    </row>
-    <row r="36" spans="1:3" s="13" customFormat="1" ht="13.5">
-      <c r="A36" s="12"/>
-      <c r="C36" s="11"/>
-    </row>
-    <row r="37" spans="1:3" s="13" customFormat="1" ht="13.5">
-      <c r="A37" s="12"/>
-      <c r="C37" s="11"/>
-    </row>
-    <row r="38" spans="1:3" s="13" customFormat="1" ht="13.5">
-      <c r="A38" s="12"/>
-      <c r="C38" s="11"/>
+      <c r="A30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" s="6" customFormat="1" ht="13.5">
+      <c r="A31" s="5"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" s="6" customFormat="1" ht="13.5">
+      <c r="A32" s="5"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" s="6" customFormat="1" ht="13.5">
+      <c r="A33" s="5"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" s="6" customFormat="1" ht="13.5">
+      <c r="A34" s="5"/>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" s="6" customFormat="1" ht="13.5">
+      <c r="A35" s="5"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" s="6" customFormat="1" ht="13.5">
+      <c r="A36" s="5"/>
+      <c r="C36" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E28"/>
+    <mergeCell ref="D1:E26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
-    <col min="3" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="14.125" style="1" customWidth="1"/>
-    <col min="9" max="255" width="9" style="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="9.625" style="1" customWidth="1"/>
+    <col min="7" max="255" width="9" style="1"/>
     <col min="256" max="256" width="7.875" style="1" customWidth="1"/>
     <col min="257" max="257" width="14.75" style="1" customWidth="1"/>
     <col min="258" max="258" width="13.875" style="1" customWidth="1"/>
@@ -2079,16 +2110,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:8" ht="28.5" customHeight="1">
       <c r="A2" s="2"/>
@@ -2096,65 +2127,65 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="40" t="s">
         <v>2</v>
       </c>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A3" s="50" t="str">
+      <c r="A3" s="56" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="41"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="str">
+      <c r="B5" s="21" t="str">
         <f>記入!B8</f>
         <v>${pd.businesscode}</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1">
-      <c r="A6" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="25" t="str">
+      <c r="A6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="21" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25" t="s">
-        <v>69</v>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -2162,61 +2193,61 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1">
-      <c r="A7" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="25" t="str">
+      <c r="A7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="21" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1">
-      <c r="A8" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="26" t="str">
-        <f>記入!B16</f>
-        <v>${pd.deliveryfinshdate}</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="A8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="22" t="str">
+        <f>記入!B21</f>
+        <v>${pd.claimamount}</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="28">
-        <f>G32</f>
+      <c r="B10" s="36">
+        <f>G26</f>
         <v>0</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="C10" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="11"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2233,302 +2264,357 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47" t="s">
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="48"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="52"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1">
-      <c r="A13" s="64" t="str">
+      <c r="A13" s="70" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="B13" s="58" t="str">
+      <c r="B13" s="64" t="str">
         <f>記入!B11</f>
         <v>${pd.pjnamechinese}</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="51" t="str">
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="57" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1">
-      <c r="A14" s="65"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="54"/>
-      <c r="G14" s="56" t="str">
+      <c r="A14" s="71"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="60"/>
+      <c r="G14" s="62" t="str">
         <f>記入!B20</f>
-        <v>${pd.claimamount}</v>
-      </c>
-      <c r="H14" s="57"/>
+        <v>${pd.currencyposition}</v>
+      </c>
+      <c r="H14" s="63"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1">
-      <c r="A15" s="65"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="53" t="str">
+      <c r="A15" s="71"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="59" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" ht="18" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" ht="18" customHeight="1">
-      <c r="A24" s="7"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" ht="18" customHeight="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" ht="18" customHeight="1">
-      <c r="A26" s="7"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" ht="18" customHeight="1">
-      <c r="A27" s="7"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" ht="18" customHeight="1">
-      <c r="A29" s="7"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" ht="18" customHeight="1">
-      <c r="A30" s="7"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" ht="18" customHeight="1">
-      <c r="A31" s="7"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" ht="18" customHeight="1">
-      <c r="A32" s="47" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="28"/>
+    </row>
+    <row r="17" spans="1:9" ht="18" customHeight="1">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="28"/>
+    </row>
+    <row r="18" spans="1:9" ht="18" customHeight="1">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="28"/>
+    </row>
+    <row r="19" spans="1:9" ht="18" customHeight="1">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="28"/>
+    </row>
+    <row r="20" spans="1:9" ht="18" customHeight="1">
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="28"/>
+    </row>
+    <row r="21" spans="1:9" ht="18" customHeight="1">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="28"/>
+    </row>
+    <row r="22" spans="1:9" ht="18" customHeight="1">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="28"/>
+    </row>
+    <row r="23" spans="1:9" ht="18" customHeight="1">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="28"/>
+    </row>
+    <row r="24" spans="1:9" ht="18" customHeight="1">
+      <c r="A24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="28"/>
+    </row>
+    <row r="25" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="28"/>
+    </row>
+    <row r="26" spans="1:9" ht="24.75" customHeight="1">
+      <c r="A26" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="66">
-        <f>SUM(G13:H31)</f>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="72">
+        <f>SUM(G13:H25)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="67"/>
+      <c r="H26" s="73"/>
+    </row>
+    <row r="27" spans="1:9" ht="18" customHeight="1">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" ht="18" customHeight="1">
+      <c r="A28" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:9" ht="18" customHeight="1">
+      <c r="A29" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="16"/>
+    </row>
+    <row r="30" spans="1:9" ht="18" customHeight="1">
+      <c r="A30" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+    </row>
+    <row r="31" spans="1:9" ht="18" customHeight="1">
+      <c r="A31" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+    </row>
+    <row r="32" spans="1:9" ht="18" customHeight="1">
+      <c r="A32" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="A33" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
     </row>
     <row r="34" spans="1:8" ht="18" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
     </row>
     <row r="35" spans="1:8" ht="18" customHeight="1">
-      <c r="A35" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="A35" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
     </row>
     <row r="36" spans="1:8" ht="18" customHeight="1">
-      <c r="A36" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="A36" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1">
-      <c r="A37" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="A37" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+    </row>
+    <row r="38" spans="1:8" ht="18" customHeight="1">
+      <c r="A38" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+    </row>
+    <row r="39" spans="1:8" ht="18" customHeight="1">
+      <c r="A39" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="19"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+    </row>
+    <row r="40" spans="1:8" ht="18" customHeight="1">
+      <c r="A40" s="17"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2536,7 +2622,7 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A26:F26"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E15:F15"/>
@@ -2544,11 +2630,10 @@
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="B13:D15"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G26:H26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/controller/src/main/resources/jxls_templates/qingqiushu_guonei.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_guonei.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newtouch\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,6 +31,55 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>newtouch</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>jx:area(lastCell="E26")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>newtouch</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>jx:area(lastCell="H40")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
   <si>
@@ -434,39 +483,37 @@
   </si>
   <si>
     <t>${pd.custochinese}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.businesscode}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>${pd.pjnamechinese}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>${pd.contractnumber}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>${pd.claimnumber}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.currencyposition}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.claimamount}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>${statime[0]}</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>${statime[1]}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.currencyposition}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.businesscode}</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -607,17 +654,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="SimHei"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="SimHei"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="SimHei"/>
@@ -681,6 +717,21 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -930,7 +981,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -977,13 +1028,13 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
@@ -998,17 +1049,26 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1016,16 +1076,7 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1034,7 +1085,7 @@
     <xf numFmtId="176" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
@@ -1049,6 +1100,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1082,16 +1137,16 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1100,19 +1155,19 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="21" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="23" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="23" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1139,28 +1194,15 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="40" fontId="10" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1469,12 +1511,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1487,307 +1529,307 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="D1" s="43" t="s">
+      <c r="B1" s="44"/>
+      <c r="D1" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="44"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="75"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="75"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="43" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="75"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="75"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="75"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="48"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="76" t="s">
-        <v>71</v>
+      <c r="B8" s="43" t="s">
+        <v>64</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
     </row>
     <row r="9" spans="1:5" s="7" customFormat="1" ht="13.5">
       <c r="A9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="75"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="75"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="77" t="s">
-        <v>64</v>
+      <c r="B11" s="43" t="s">
+        <v>65</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="48"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="77" t="s">
-        <v>65</v>
+      <c r="B12" s="43" t="s">
+        <v>66</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="77" t="s">
-        <v>66</v>
+      <c r="B13" s="43" t="s">
+        <v>67</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="78" t="s">
-        <v>67</v>
+      <c r="B14" s="76" t="s">
+        <v>70</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="78" t="s">
-        <v>68</v>
+      <c r="B15" s="76" t="s">
+        <v>71</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="48"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="75"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="75"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="48"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="75"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="48"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="75"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
     </row>
     <row r="20" spans="1:5" s="7" customFormat="1" ht="13.5">
       <c r="A20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="77" t="s">
-        <v>69</v>
+      <c r="B20" s="43" t="s">
+        <v>68</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
     </row>
     <row r="21" spans="1:5" s="7" customFormat="1" ht="13.5">
       <c r="A21" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="79" t="s">
-        <v>70</v>
+      <c r="B21" s="43" t="s">
+        <v>69</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="46"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
     </row>
     <row r="22" spans="1:5" s="7" customFormat="1" ht="13.5">
       <c r="A22" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="75"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="46"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
     </row>
     <row r="23" spans="1:5" s="7" customFormat="1" ht="13.5">
       <c r="A23" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="75"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="45"/>
-      <c r="E23" s="46"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="75"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="75"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
     </row>
     <row r="26" spans="1:5" ht="13.5" thickBot="1">
       <c r="A26" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="75"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="50"/>
     </row>
     <row r="27" spans="1:5" ht="13.5">
       <c r="A27" s="5"/>
@@ -1834,16 +1876,17 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:H14"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2110,16 +2153,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
     </row>
     <row r="2" spans="1:8" ht="28.5" customHeight="1">
       <c r="A2" s="2"/>
@@ -2136,13 +2179,13 @@
       <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A3" s="56" t="str">
+      <c r="A3" s="58" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2267,64 +2310,64 @@
       <c r="A12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51" t="s">
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="51" t="s">
+      <c r="F12" s="54"/>
+      <c r="G12" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="52"/>
+      <c r="H12" s="54"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1">
-      <c r="A13" s="70" t="str">
+      <c r="A13" s="72" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="B13" s="64" t="str">
+      <c r="B13" s="66" t="str">
         <f>記入!B11</f>
         <v>${pd.pjnamechinese}</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="57" t="str">
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="59" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="F13" s="58"/>
+      <c r="F13" s="60"/>
       <c r="G13" s="23"/>
       <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1">
-      <c r="A14" s="71"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="61" t="s">
+      <c r="A14" s="73"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="60"/>
-      <c r="G14" s="62" t="str">
+      <c r="F14" s="62"/>
+      <c r="G14" s="64" t="str">
         <f>記入!B20</f>
         <v>${pd.currencyposition}</v>
       </c>
-      <c r="H14" s="63"/>
+      <c r="H14" s="65"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1">
-      <c r="A15" s="71"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="59" t="str">
+      <c r="A15" s="73"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="61" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="F15" s="60"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="23"/>
       <c r="H15" s="24"/>
     </row>
@@ -2429,19 +2472,19 @@
       <c r="H25" s="28"/>
     </row>
     <row r="26" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="72">
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="74">
         <f>SUM(G13:H25)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="73"/>
+      <c r="H26" s="75"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1">
       <c r="A27" s="18"/>
@@ -2635,5 +2678,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/controller/src/main/resources/jxls_templates/qingqiushu_guonei.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_guonei.xlsx
@@ -1104,105 +1104,105 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1515,8 +1515,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1529,14 +1529,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="D1" s="45" t="s">
+      <c r="B1" s="45"/>
+      <c r="D1" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="46"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="13" t="s">
@@ -1546,8 +1546,8 @@
       <c r="C2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="14" t="s">
@@ -1557,8 +1557,8 @@
       <c r="C3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="13" t="s">
@@ -1570,8 +1570,8 @@
       <c r="C4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
@@ -1581,8 +1581,8 @@
       <c r="C5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="15" t="s">
@@ -1592,8 +1592,8 @@
       <c r="C6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="15" t="s">
@@ -1603,8 +1603,8 @@
       <c r="C7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="13" t="s">
@@ -1616,8 +1616,8 @@
       <c r="C8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
     </row>
     <row r="9" spans="1:5" s="7" customFormat="1" ht="13.5">
       <c r="A9" s="14" t="s">
@@ -1627,8 +1627,8 @@
       <c r="C9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="13" t="s">
@@ -1638,8 +1638,8 @@
       <c r="C10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="13" t="s">
@@ -1651,8 +1651,8 @@
       <c r="C11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="13" t="s">
@@ -1664,8 +1664,8 @@
       <c r="C12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="13" t="s">
@@ -1677,34 +1677,34 @@
       <c r="C13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="44" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="44" t="s">
         <v>71</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="13" t="s">
@@ -1714,8 +1714,8 @@
       <c r="C16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="13" t="s">
@@ -1725,8 +1725,8 @@
       <c r="C17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="13" t="s">
@@ -1736,45 +1736,45 @@
       <c r="C18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
+      <c r="B19" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
     </row>
     <row r="20" spans="1:5" s="7" customFormat="1" ht="13.5">
       <c r="A20" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
     </row>
     <row r="21" spans="1:5" s="7" customFormat="1" ht="13.5">
       <c r="A21" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="48"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
     </row>
     <row r="22" spans="1:5" s="7" customFormat="1" ht="13.5">
       <c r="A22" s="13" t="s">
@@ -1784,8 +1784,8 @@
       <c r="C22" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
     </row>
     <row r="23" spans="1:5" s="7" customFormat="1" ht="13.5">
       <c r="A23" s="14" t="s">
@@ -1795,8 +1795,8 @@
       <c r="C23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="14" t="s">
@@ -1806,8 +1806,8 @@
       <c r="C24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="14" t="s">
@@ -1817,8 +1817,8 @@
       <c r="C25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
     </row>
     <row r="26" spans="1:5" ht="13.5" thickBot="1">
       <c r="A26" s="14" t="s">
@@ -1828,8 +1828,8 @@
       <c r="C26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="51"/>
     </row>
     <row r="27" spans="1:5" ht="13.5">
       <c r="A27" s="5"/>
@@ -2153,16 +2153,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" ht="28.5" customHeight="1">
       <c r="A2" s="2"/>
@@ -2179,13 +2179,13 @@
       <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A3" s="58" t="str">
+      <c r="A3" s="59" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="22" t="str">
-        <f>記入!B21</f>
+        <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
       <c r="C8" s="11"/>
@@ -2310,64 +2310,64 @@
       <c r="A12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="53" t="s">
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="54"/>
-      <c r="G12" s="53" t="s">
+      <c r="F12" s="55"/>
+      <c r="G12" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="54"/>
+      <c r="H12" s="55"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1">
-      <c r="A13" s="72" t="str">
+      <c r="A13" s="73" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="B13" s="66" t="str">
+      <c r="B13" s="67" t="str">
         <f>記入!B11</f>
         <v>${pd.pjnamechinese}</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="59" t="str">
+      <c r="C13" s="68"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="60" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="F13" s="60"/>
+      <c r="F13" s="61"/>
       <c r="G13" s="23"/>
       <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1">
-      <c r="A14" s="73"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="63" t="s">
+      <c r="A14" s="74"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="62"/>
-      <c r="G14" s="64" t="str">
-        <f>記入!B20</f>
+      <c r="F14" s="63"/>
+      <c r="G14" s="65" t="str">
+        <f>記入!B19</f>
         <v>${pd.currencyposition}</v>
       </c>
-      <c r="H14" s="65"/>
+      <c r="H14" s="66"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1">
-      <c r="A15" s="73"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="61" t="str">
+      <c r="A15" s="74"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="62" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="F15" s="62"/>
+      <c r="F15" s="63"/>
       <c r="G15" s="23"/>
       <c r="H15" s="24"/>
     </row>
@@ -2472,19 +2472,19 @@
       <c r="H25" s="28"/>
     </row>
     <row r="26" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="74">
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="75">
         <f>SUM(G13:H25)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="75"/>
+      <c r="H26" s="76"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1">
       <c r="A27" s="18"/>

--- a/controller/src/main/resources/jxls_templates/qingqiushu_guonei.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_guonei.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" tabRatio="570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" tabRatio="570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -1515,7 +1515,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -1885,8 +1885,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2283,9 +2283,9 @@
       <c r="A10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="36" t="str">
         <f>G26</f>
-        <v>0</v>
+        <v>${pd.claimamount}</v>
       </c>
       <c r="C10" s="35" t="s">
         <v>60</v>
@@ -2353,8 +2353,8 @@
       </c>
       <c r="F14" s="63"/>
       <c r="G14" s="65" t="str">
-        <f>記入!B19</f>
-        <v>${pd.currencyposition}</v>
+        <f>記入!B20</f>
+        <v>${pd.claimamount}</v>
       </c>
       <c r="H14" s="66"/>
     </row>
@@ -2480,9 +2480,9 @@
       <c r="D26" s="57"/>
       <c r="E26" s="57"/>
       <c r="F26" s="58"/>
-      <c r="G26" s="75">
-        <f>SUM(G13:H25)</f>
-        <v>0</v>
+      <c r="G26" s="75" t="str">
+        <f>記入!B20</f>
+        <v>${pd.claimamount}</v>
       </c>
       <c r="H26" s="76"/>
     </row>

--- a/controller/src/main/resources/jxls_templates/qingqiushu_guonei.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_guonei.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" tabRatio="570" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
   <si>
     <t>請　求　書</t>
     <phoneticPr fontId="4"/>
@@ -502,10 +502,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>${pd.currencyposition}</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>${pd.claimamount}</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -514,6 +510,14 @@
   </si>
   <si>
     <t>${statime[1]}</t>
+  </si>
+  <si>
+    <t>RMB</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.claimdate}</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -981,7 +985,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1104,7 +1108,10 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1515,8 +1522,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1529,14 +1536,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="D1" s="46" t="s">
+      <c r="B1" s="46"/>
+      <c r="D1" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="47"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="13" t="s">
@@ -1546,8 +1553,8 @@
       <c r="C2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="14" t="s">
@@ -1557,21 +1564,21 @@
       <c r="C3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
@@ -1581,8 +1588,8 @@
       <c r="C5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="15" t="s">
@@ -1592,8 +1599,8 @@
       <c r="C6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="15" t="s">
@@ -1603,21 +1610,21 @@
       <c r="C7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="44" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="50"/>
     </row>
     <row r="9" spans="1:5" s="7" customFormat="1" ht="13.5">
       <c r="A9" s="14" t="s">
@@ -1627,8 +1634,8 @@
       <c r="C9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="13" t="s">
@@ -1638,73 +1645,73 @@
       <c r="C10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="44" t="s">
         <v>65</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="44" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="44" t="s">
         <v>67</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="44" t="s">
-        <v>70</v>
+      <c r="B14" s="45" t="s">
+        <v>69</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="44" t="s">
-        <v>71</v>
+      <c r="B15" s="45" t="s">
+        <v>70</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="50"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="13" t="s">
@@ -1714,8 +1721,8 @@
       <c r="C16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="13" t="s">
@@ -1725,8 +1732,8 @@
       <c r="C17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="13" t="s">
@@ -1736,45 +1743,47 @@
       <c r="C18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
     </row>
     <row r="20" spans="1:5" s="7" customFormat="1" ht="13.5">
       <c r="A20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="43" t="s">
-        <v>69</v>
+      <c r="B20" s="44" t="s">
+        <v>68</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
     </row>
     <row r="21" spans="1:5" s="7" customFormat="1" ht="13.5">
       <c r="A21" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
+      <c r="B21" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
     </row>
     <row r="22" spans="1:5" s="7" customFormat="1" ht="13.5">
       <c r="A22" s="13" t="s">
@@ -1784,8 +1793,8 @@
       <c r="C22" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50"/>
     </row>
     <row r="23" spans="1:5" s="7" customFormat="1" ht="13.5">
       <c r="A23" s="14" t="s">
@@ -1795,8 +1804,8 @@
       <c r="C23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="50"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="14" t="s">
@@ -1806,8 +1815,8 @@
       <c r="C24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="50"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="14" t="s">
@@ -1817,8 +1826,8 @@
       <c r="C25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
     </row>
     <row r="26" spans="1:5" ht="13.5" thickBot="1">
       <c r="A26" s="14" t="s">
@@ -1828,8 +1837,8 @@
       <c r="C26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="52"/>
     </row>
     <row r="27" spans="1:5" ht="13.5">
       <c r="A27" s="5"/>
@@ -1885,8 +1894,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2153,16 +2162,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:8" ht="28.5" customHeight="1">
       <c r="A2" s="2"/>
@@ -2179,13 +2188,13 @@
       <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A3" s="59" t="str">
+      <c r="A3" s="60" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2310,64 +2319,64 @@
       <c r="A12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54" t="s">
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="54" t="s">
+      <c r="F12" s="56"/>
+      <c r="G12" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="55"/>
+      <c r="H12" s="56"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1">
-      <c r="A13" s="73" t="str">
+      <c r="A13" s="74" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="B13" s="67" t="str">
+      <c r="B13" s="68" t="str">
         <f>記入!B11</f>
         <v>${pd.pjnamechinese}</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="60" t="str">
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="61" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="F13" s="61"/>
+      <c r="F13" s="62"/>
       <c r="G13" s="23"/>
       <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1">
-      <c r="A14" s="74"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="64" t="s">
+      <c r="A14" s="75"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="65" t="str">
+      <c r="F14" s="64"/>
+      <c r="G14" s="66" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
-      <c r="H14" s="66"/>
+      <c r="H14" s="67"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1">
-      <c r="A15" s="74"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="62" t="str">
+      <c r="A15" s="75"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="63" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="F15" s="63"/>
+      <c r="F15" s="64"/>
       <c r="G15" s="23"/>
       <c r="H15" s="24"/>
     </row>
@@ -2472,19 +2481,19 @@
       <c r="H25" s="28"/>
     </row>
     <row r="26" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="75" t="str">
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="76" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
-      <c r="H26" s="76"/>
+      <c r="H26" s="77"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1">
       <c r="A27" s="18"/>

--- a/controller/src/main/resources/jxls_templates/qingqiushu_guonei.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_guonei.xlsx
@@ -524,7 +524,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="31">
@@ -1086,9 +1088,6 @@
     <xf numFmtId="176" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1115,6 +1114,12 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="44" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1175,10 +1180,10 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="21" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="21" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1205,10 +1210,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="21" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1523,7 +1525,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1536,309 +1538,309 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="47"/>
+      <c r="D1" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="48"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="43" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="42"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="42"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="42"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:5" s="7" customFormat="1" ht="13.5">
       <c r="A9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="42"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="42"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="43" t="s">
         <v>65</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="43" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="43" t="s">
         <v>67</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="44" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="44" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="42"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="42"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="42"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="42" t="s">
         <v>71</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:5" s="7" customFormat="1" ht="13.5">
       <c r="A20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="46" t="s">
         <v>68</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="51"/>
     </row>
     <row r="21" spans="1:5" s="7" customFormat="1" ht="13.5">
       <c r="A21" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="44" t="s">
         <v>72</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51"/>
     </row>
     <row r="22" spans="1:5" s="7" customFormat="1" ht="13.5">
       <c r="A22" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="42"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
     </row>
     <row r="23" spans="1:5" s="7" customFormat="1" ht="13.5">
       <c r="A23" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="42"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="42"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="42"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
     </row>
     <row r="26" spans="1:5" ht="13.5" thickBot="1">
       <c r="A26" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="42"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="53"/>
     </row>
     <row r="27" spans="1:5" ht="13.5">
       <c r="A27" s="5"/>
@@ -1894,7 +1896,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G26" sqref="G26:H26"/>
     </sheetView>
   </sheetViews>
@@ -2162,16 +2164,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:8" ht="28.5" customHeight="1">
       <c r="A2" s="2"/>
@@ -2179,28 +2181,28 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="41"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A3" s="60" t="str">
+      <c r="A3" s="61" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="41"/>
+      <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1">
       <c r="A4" s="10"/>
@@ -2253,30 +2255,30 @@
         <v>${pd.claimnumber}</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="22" t="str">
-        <f>記入!B20</f>
-        <v>${pd.claimamount}</v>
+        <f>記入!B21</f>
+        <v>${pd.claimdate}</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1">
       <c r="A9" s="11"/>
@@ -2292,7 +2294,7 @@
       <c r="A10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="36" t="str">
+      <c r="B10" s="45" t="str">
         <f>G26</f>
         <v>${pd.claimamount}</v>
       </c>
@@ -2316,67 +2318,67 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55" t="s">
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="55" t="s">
+      <c r="F12" s="57"/>
+      <c r="G12" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="56"/>
+      <c r="H12" s="57"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1">
-      <c r="A13" s="74" t="str">
+      <c r="A13" s="75" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="B13" s="68" t="str">
+      <c r="B13" s="69" t="str">
         <f>記入!B11</f>
         <v>${pd.pjnamechinese}</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="61" t="str">
+      <c r="C13" s="70"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="62" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="F13" s="62"/>
+      <c r="F13" s="63"/>
       <c r="G13" s="23"/>
       <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1">
-      <c r="A14" s="75"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="65" t="s">
+      <c r="A14" s="76"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="64"/>
-      <c r="G14" s="66" t="str">
+      <c r="F14" s="65"/>
+      <c r="G14" s="67" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
-      <c r="H14" s="67"/>
+      <c r="H14" s="68"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1">
-      <c r="A15" s="75"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="63" t="str">
+      <c r="A15" s="76"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="64" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="F15" s="64"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="23"/>
       <c r="H15" s="24"/>
     </row>
@@ -2481,15 +2483,15 @@
       <c r="H25" s="28"/>
     </row>
     <row r="26" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="76" t="str">
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="77" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>

--- a/controller/src/main/resources/jxls_templates/qingqiushu_guonei.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_guonei.xlsx
@@ -524,10 +524,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="177" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -987,7 +988,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1046,9 +1047,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1120,6 +1118,13 @@
     <xf numFmtId="7" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1212,6 +1217,12 @@
     </xf>
     <xf numFmtId="7" fontId="21" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1525,7 +1536,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1538,309 +1549,309 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="48"/>
+      <c r="D1" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="13" t="s">
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+    </row>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="80" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="41"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="42" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
     </row>
     <row r="9" spans="1:5" s="7" customFormat="1" ht="13.5">
       <c r="A9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="41"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="41"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="42" t="s">
         <v>65</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="42" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="42" t="s">
         <v>67</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="43" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="41"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="41"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="41"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="41" t="s">
         <v>71</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:5" s="7" customFormat="1" ht="13.5">
       <c r="A20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="45" t="s">
         <v>68</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
     </row>
     <row r="21" spans="1:5" s="7" customFormat="1" ht="13.5">
       <c r="A21" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="46" t="s">
         <v>72</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="52"/>
     </row>
     <row r="22" spans="1:5" s="7" customFormat="1" ht="13.5">
       <c r="A22" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="41"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
     </row>
     <row r="23" spans="1:5" s="7" customFormat="1" ht="13.5">
       <c r="A23" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="41"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="41"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="41"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="52"/>
     </row>
     <row r="26" spans="1:5" ht="13.5" thickBot="1">
       <c r="A26" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="41"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="54"/>
     </row>
     <row r="27" spans="1:5" ht="13.5">
       <c r="A27" s="5"/>
@@ -1897,7 +1908,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:H26"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2164,16 +2175,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" ht="28.5" customHeight="1">
       <c r="A2" s="2"/>
@@ -2181,28 +2192,28 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="40"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A3" s="61" t="str">
+      <c r="A3" s="62" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="40"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1">
       <c r="A4" s="10"/>
@@ -2255,30 +2266,30 @@
         <v>${pd.claimnumber}</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="22" t="str">
+      <c r="B8" s="47" t="str">
         <f>記入!B21</f>
         <v>${pd.claimdate}</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1">
       <c r="A9" s="11"/>
@@ -2294,11 +2305,11 @@
       <c r="A10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="45" t="str">
+      <c r="B10" s="44" t="str">
         <f>G26</f>
         <v>${pd.claimamount}</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="11"/>
@@ -2318,184 +2329,184 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56" t="s">
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="56" t="s">
+      <c r="F12" s="58"/>
+      <c r="G12" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="57"/>
+      <c r="H12" s="58"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1">
-      <c r="A13" s="75" t="str">
+      <c r="A13" s="76" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="B13" s="69" t="str">
+      <c r="B13" s="70" t="str">
         <f>記入!B11</f>
         <v>${pd.pjnamechinese}</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="62" t="str">
+      <c r="C13" s="71"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="63" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="F13" s="63"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1">
-      <c r="A14" s="76"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="66" t="s">
+      <c r="A14" s="77"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="67" t="str">
+      <c r="F14" s="66"/>
+      <c r="G14" s="68" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
-      <c r="H14" s="68"/>
+      <c r="H14" s="69"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1">
-      <c r="A15" s="76"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="64" t="str">
+      <c r="A15" s="77"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="65" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="F15" s="65"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="28"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="27"/>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="28"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="27"/>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="28"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="27"/>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="28"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="27"/>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="28"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="28"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="27"/>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="28"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="27"/>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="28"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="27"/>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1">
-      <c r="A24" s="25"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="28"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="27"/>
     </row>
     <row r="25" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="28"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="27"/>
     </row>
     <row r="26" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="77" t="str">
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="78" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
-      <c r="H26" s="77"/>
+      <c r="H26" s="78"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1">
       <c r="A27" s="18"/>
@@ -2508,7 +2519,7 @@
       <c r="H27" s="18"/>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="28" t="s">
         <v>45</v>
       </c>
       <c r="B28" s="18"/>
@@ -2520,20 +2531,20 @@
       <c r="H28" s="18"/>
     </row>
     <row r="29" spans="1:9" ht="18" customHeight="1">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
       <c r="I29" s="16"/>
     </row>
     <row r="30" spans="1:9" ht="18" customHeight="1">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="33" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="19"/>
@@ -2591,11 +2602,11 @@
       <c r="H34" s="19"/>
     </row>
     <row r="35" spans="1:8" ht="18" customHeight="1">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
@@ -2603,7 +2614,7 @@
       <c r="H35" s="19"/>
     </row>
     <row r="36" spans="1:8" ht="18" customHeight="1">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="33" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="19"/>

--- a/controller/src/main/resources/jxls_templates/qingqiushu_guonei.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_guonei.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" tabRatio="570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" tabRatio="570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -528,7 +528,7 @@
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="177" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="178" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1108,121 +1108,120 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="44" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="21" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="21" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="21" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="21" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="21" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="21" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="21" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="21" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1535,8 +1534,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B14" activeCellId="2" sqref="B21 B15 B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1549,14 +1548,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="47"/>
+      <c r="D1" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="50"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="13" t="s">
@@ -1566,8 +1565,8 @@
       <c r="C2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="14" t="s">
@@ -1577,21 +1576,21 @@
       <c r="C3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="46" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
@@ -1601,8 +1600,8 @@
       <c r="C5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="15" t="s">
@@ -1612,8 +1611,8 @@
       <c r="C6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="15" t="s">
@@ -1623,8 +1622,8 @@
       <c r="C7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="13" t="s">
@@ -1636,8 +1635,8 @@
       <c r="C8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:5" s="7" customFormat="1" ht="13.5">
       <c r="A9" s="14" t="s">
@@ -1647,8 +1646,8 @@
       <c r="C9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="13" t="s">
@@ -1658,8 +1657,8 @@
       <c r="C10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="13" t="s">
@@ -1671,8 +1670,8 @@
       <c r="C11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="13" t="s">
@@ -1684,8 +1683,8 @@
       <c r="C12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="13" t="s">
@@ -1697,34 +1696,34 @@
       <c r="C13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="75" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="75" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="13" t="s">
@@ -1734,8 +1733,8 @@
       <c r="C16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="52"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="13" t="s">
@@ -1745,8 +1744,8 @@
       <c r="C17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="13" t="s">
@@ -1756,8 +1755,8 @@
       <c r="C18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="52"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="13" t="s">
@@ -1769,34 +1768,34 @@
       <c r="C19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="52"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:5" s="7" customFormat="1" ht="13.5">
       <c r="A20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="44" t="s">
         <v>68</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="51"/>
     </row>
     <row r="21" spans="1:5" s="7" customFormat="1" ht="13.5">
       <c r="A21" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="75" t="s">
         <v>72</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="52"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51"/>
     </row>
     <row r="22" spans="1:5" s="7" customFormat="1" ht="13.5">
       <c r="A22" s="13" t="s">
@@ -1806,8 +1805,8 @@
       <c r="C22" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
     </row>
     <row r="23" spans="1:5" s="7" customFormat="1" ht="13.5">
       <c r="A23" s="14" t="s">
@@ -1817,8 +1816,8 @@
       <c r="C23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="14" t="s">
@@ -1828,8 +1827,8 @@
       <c r="C24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="14" t="s">
@@ -1839,8 +1838,8 @@
       <c r="C25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
     </row>
     <row r="26" spans="1:5" ht="13.5" thickBot="1">
       <c r="A26" s="14" t="s">
@@ -1850,8 +1849,8 @@
       <c r="C26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="54"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="53"/>
     </row>
     <row r="27" spans="1:5" ht="13.5">
       <c r="A27" s="5"/>
@@ -1907,8 +1906,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E15" activeCellId="2" sqref="B8 E13:F13 E15:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2175,16 +2174,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:8" ht="28.5" customHeight="1">
       <c r="A2" s="2"/>
@@ -2201,13 +2200,13 @@
       <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A3" s="62" t="str">
+      <c r="A3" s="61" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2278,7 +2277,7 @@
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="47" t="str">
+      <c r="B8" s="76" t="str">
         <f>記入!B21</f>
         <v>${pd.claimdate}</v>
       </c>
@@ -2305,7 +2304,7 @@
       <c r="A10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="44" t="str">
+      <c r="B10" s="43" t="str">
         <f>G26</f>
         <v>${pd.claimamount}</v>
       </c>
@@ -2332,64 +2331,64 @@
       <c r="A12" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57" t="s">
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="57" t="s">
+      <c r="F12" s="57"/>
+      <c r="G12" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="58"/>
+      <c r="H12" s="57"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1">
-      <c r="A13" s="76" t="str">
+      <c r="A13" s="72" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="B13" s="70" t="str">
+      <c r="B13" s="66" t="str">
         <f>記入!B11</f>
         <v>${pd.pjnamechinese}</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="63" t="str">
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="77" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="F13" s="64"/>
+      <c r="F13" s="78"/>
       <c r="G13" s="22"/>
       <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1">
-      <c r="A14" s="77"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="67" t="s">
+      <c r="A14" s="73"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="66"/>
-      <c r="G14" s="68" t="str">
+      <c r="F14" s="62"/>
+      <c r="G14" s="64" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
-      <c r="H14" s="69"/>
+      <c r="H14" s="65"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1">
-      <c r="A15" s="77"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="65" t="str">
+      <c r="A15" s="73"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="79" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="F15" s="66"/>
+      <c r="F15" s="80"/>
       <c r="G15" s="22"/>
       <c r="H15" s="23"/>
     </row>
@@ -2494,19 +2493,19 @@
       <c r="H25" s="27"/>
     </row>
     <row r="26" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="78" t="str">
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="74" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
-      <c r="H26" s="78"/>
+      <c r="H26" s="74"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1">
       <c r="A27" s="18"/>

--- a/controller/src/main/resources/jxls_templates/qingqiushu_guonei.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_guonei.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -528,7 +528,7 @@
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="178" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="177" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -770,7 +770,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -974,6 +974,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -988,7 +1010,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1047,12 +1069,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1120,6 +1136,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1165,18 +1188,24 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="21" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="21" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1204,32 +1233,31 @@
     <xf numFmtId="7" fontId="21" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="21" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="21" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="7" fontId="21" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="7" fontId="21" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="7" fontId="21" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="7" fontId="21" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="7" fontId="21" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="7" fontId="21" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 3" xfId="2"/>
     <cellStyle name="標準 4" xfId="3"/>
     <cellStyle name="標準 5" xfId="4"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1245,7 +1273,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1561,7 +1589,7 @@
       <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="9" t="s">
         <v>30</v>
       </c>
@@ -1572,7 +1600,7 @@
       <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="9" t="s">
         <v>30</v>
       </c>
@@ -1580,10 +1608,10 @@
       <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="44" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -1596,7 +1624,7 @@
       <c r="A5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="9" t="s">
         <v>30</v>
       </c>
@@ -1607,7 +1635,7 @@
       <c r="A6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="9" t="s">
         <v>30</v>
       </c>
@@ -1618,7 +1646,7 @@
       <c r="A7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="9" t="s">
         <v>30</v>
       </c>
@@ -1629,7 +1657,7 @@
       <c r="A8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="40" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -1642,7 +1670,7 @@
       <c r="A9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="40"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="9" t="s">
         <v>30</v>
       </c>
@@ -1653,7 +1681,7 @@
       <c r="A10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="40"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="9" t="s">
         <v>30</v>
       </c>
@@ -1664,7 +1692,7 @@
       <c r="A11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="40" t="s">
         <v>65</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -1677,7 +1705,7 @@
       <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="40" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -1690,7 +1718,7 @@
       <c r="A13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="40" t="s">
         <v>67</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -1703,7 +1731,7 @@
       <c r="A14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="45" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -1716,7 +1744,7 @@
       <c r="A15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="45" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -1729,7 +1757,7 @@
       <c r="A16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="40"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="9" t="s">
         <v>30</v>
       </c>
@@ -1740,7 +1768,7 @@
       <c r="A17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="40"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="9" t="s">
         <v>30</v>
       </c>
@@ -1751,7 +1779,7 @@
       <c r="A18" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="40"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="9" t="s">
         <v>30</v>
       </c>
@@ -1762,7 +1790,7 @@
       <c r="A19" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="39" t="s">
         <v>71</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -1775,7 +1803,7 @@
       <c r="A20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="42" t="s">
         <v>68</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -1788,7 +1816,7 @@
       <c r="A21" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="75" t="s">
+      <c r="B21" s="45" t="s">
         <v>72</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -1801,7 +1829,7 @@
       <c r="A22" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="40"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="9" t="s">
         <v>30</v>
       </c>
@@ -1812,7 +1840,7 @@
       <c r="A23" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="40"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="9" t="s">
         <v>30</v>
       </c>
@@ -1823,7 +1851,7 @@
       <c r="A24" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="40"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="9" t="s">
         <v>30</v>
       </c>
@@ -1834,7 +1862,7 @@
       <c r="A25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="40"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="9" t="s">
         <v>30</v>
       </c>
@@ -1845,7 +1873,7 @@
       <c r="A26" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="40"/>
+      <c r="B26" s="38"/>
       <c r="C26" s="9" t="s">
         <v>30</v>
       </c>
@@ -1907,7 +1935,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E15" activeCellId="2" sqref="B8 E13:F13 E15:F15"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2191,13 +2219,13 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="39"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8" ht="25.5" customHeight="1">
       <c r="A3" s="61" t="str">
@@ -2212,7 +2240,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="39"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1">
       <c r="A4" s="10"/>
@@ -2265,30 +2293,30 @@
         <v>${pd.claimnumber}</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="76" t="str">
+      <c r="B8" s="46" t="str">
         <f>記入!B21</f>
         <v>${pd.claimdate}</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1">
       <c r="A9" s="11"/>
@@ -2304,11 +2332,11 @@
       <c r="A10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="43" t="str">
+      <c r="B10" s="41" t="str">
         <f>G26</f>
         <v>${pd.claimamount}</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="32" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="11"/>
@@ -2328,7 +2356,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="55" t="s">
@@ -2346,151 +2374,151 @@
       <c r="H12" s="57"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1">
-      <c r="A13" s="72" t="str">
+      <c r="A13" s="74" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="B13" s="66" t="str">
+      <c r="B13" s="68" t="str">
         <f>記入!B11</f>
         <v>${pd.pjnamechinese}</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="77" t="str">
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="62" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="F13" s="78"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
-    </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1">
-      <c r="A14" s="73"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="62"/>
-      <c r="G14" s="64" t="str">
+      <c r="F13" s="63"/>
+      <c r="G13" s="77" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
-      <c r="H14" s="65"/>
+      <c r="H13" s="78"/>
+    </row>
+    <row r="14" spans="1:8" ht="18" customHeight="1">
+      <c r="A14" s="75"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="67"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="80"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1">
-      <c r="A15" s="73"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="79" t="str">
+      <c r="A15" s="75"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="64" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="F15" s="80"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="80"/>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="27"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="80"/>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="27"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="80"/>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="27"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="80"/>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="27"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="80"/>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="27"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="80"/>
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="27"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="80"/>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="27"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="80"/>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="27"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="80"/>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="27"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="80"/>
     </row>
     <row r="25" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="27"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="82"/>
     </row>
     <row r="26" spans="1:9" ht="24.75" customHeight="1">
       <c r="A26" s="58" t="s">
@@ -2501,11 +2529,11 @@
       <c r="D26" s="59"/>
       <c r="E26" s="59"/>
       <c r="F26" s="60"/>
-      <c r="G26" s="74" t="str">
+      <c r="G26" s="76" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
-      <c r="H26" s="74"/>
+      <c r="H26" s="76"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1">
       <c r="A27" s="18"/>
@@ -2518,7 +2546,7 @@
       <c r="H27" s="18"/>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="26" t="s">
         <v>45</v>
       </c>
       <c r="B28" s="18"/>
@@ -2530,20 +2558,20 @@
       <c r="H28" s="18"/>
     </row>
     <row r="29" spans="1:9" ht="18" customHeight="1">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
       <c r="I29" s="16"/>
     </row>
     <row r="30" spans="1:9" ht="18" customHeight="1">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="31" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="19"/>
@@ -2601,11 +2629,11 @@
       <c r="H34" s="19"/>
     </row>
     <row r="35" spans="1:8" ht="18" customHeight="1">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
@@ -2613,7 +2641,7 @@
       <c r="H35" s="19"/>
     </row>
     <row r="36" spans="1:8" ht="18" customHeight="1">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="31" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="19"/>
@@ -2691,10 +2719,10 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
     <mergeCell ref="B13:D15"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G13:H25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
